--- a/Survey_Tools/xs_reduction.xlsx
+++ b/Survey_Tools/xs_reduction.xlsx
@@ -2379,7 +2379,7 @@
                   <c:v>5.5228134309305599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7060966261331316</c:v>
+                  <c:v>7.0428778393505995</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.857501385178857</c:v>
@@ -2388,49 +2388,49 @@
                   <c:v>14.32791119928666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.673537475653031</c:v>
+                  <c:v>15.795539381414653</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>17.694540459232748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.015627813695463</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>29.429046521140197</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>31.422178810405711</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>35.171070249955633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.025520412360549</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44.902765369336663</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>40.244824750354198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.98799341988947</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>50.117991679524721</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>51.259454854785211</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>51.924121820209251</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>53.782058641583461</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>57.514926493651132</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59.055643659944828</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
+                  <c:v>56.094335726947179</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>61.200961045879303</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.40583426003991</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>66.531407082366414</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68.919076085784525</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.119976724951684</c:v>
+                  <c:v>68.085815748975833</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>71.445931883603834</c:v>
@@ -2442,28 +2442,28 @@
                   <c:v>73.845710078514472</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77.745147133501845</c:v>
+                  <c:v>75.103268415752353</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>79.976518002158997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>82.205157048392735</c:v>
+                  <c:v>88.101699130889472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.784141459288321</c:v>
+                  <c:v>98.112336891028065</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>88.101699130889472</c:v>
+                  <c:v>102.09750505196772</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>94.156505546722912</c:v>
+                  <c:v>105.81941266323285</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.112336891028065</c:v>
+                  <c:v>109.13389189100963</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>105.81941266323285</c:v>
+                  <c:v>112.54096619313809</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>115.65112851919692</c:v>
@@ -3303,7 +3303,7 @@
                   <c:v>596.05679499999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>596.51881899999989</c:v>
+                  <c:v>596.44143599999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>596.48008099999993</c:v>
@@ -3312,49 +3312,49 @@
                   <c:v>596.56455499999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>596.66105399999992</c:v>
+                  <c:v>596.30319399999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>596.29378599999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>596.5950489999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>596.21382799999992</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>596.00709699999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>595.06204600000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>594.911697</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>594.28614999999991</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>594.57256599999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594.25388399999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>593.97601399999996</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>593.63709599999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>593.24104199999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>592.520759</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>591.29049599999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>591.04247999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
+                  <c:v>591.67169699999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>591.20973199999992</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>591.08148499999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>591.28118799999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>591.91285399999992</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>592.43560099999991</c:v>
+                  <c:v>591.65495799999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>593.03289199999995</c:v>
@@ -3366,28 +3366,28 @@
                   <c:v>593.61015499999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>596.01555499999995</c:v>
+                  <c:v>594.41669999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>596.90220199999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>596.93220099999996</c:v>
+                  <c:v>597.285122</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>597.1480029999999</c:v>
+                  <c:v>597.25538599999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>597.285122</c:v>
+                  <c:v>597.15063399999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>597.10817099999997</c:v>
+                  <c:v>597.05117399999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>597.25538599999993</c:v>
+                  <c:v>596.70034799999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>597.05117399999995</c:v>
+                  <c:v>596.59321699999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>596.729874</c:v>
@@ -6098,11 +6098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="724099048"/>
-        <c:axId val="724096304"/>
+        <c:axId val="419485672"/>
+        <c:axId val="419491944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="724099048"/>
+        <c:axId val="419485672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,6 +6148,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6214,12 +6215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="724096304"/>
+        <c:crossAx val="419491944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="724096304"/>
+        <c:axId val="419491944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6339,7 +6340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="724099048"/>
+        <c:crossAx val="419485672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7309,8 +7310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7445,7 +7446,7 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">MATCH(B2,L6:L501,0)</f>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="9" t="s">
@@ -7484,15 +7485,15 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F69" ca="1" si="1">IF(AND(K6,L6&lt;=$B$2),INDEX($A$6:$A$304,H6),"")</f>
-        <v>64.40583426003991</v>
+        <v>109.13389189100963</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ref="G6:G69" ca="1" si="2">IF(AND(K6,L6&lt;=$B$2),INDEX($B$6:$B$304,H6),"")</f>
-        <v>591.08148499999993</v>
+        <v>596.70034799999996</v>
       </c>
       <c r="H6" s="4">
         <f ca="1">RANDBETWEEN(1,$A$2)</f>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H6,H6)&gt;1,TRUE,FALSE)</f>
@@ -7512,7 +7513,7 @@
       </c>
       <c r="M6" s="4">
         <f ca="1">IF(AND(K6,L6&lt;=$B$2),H6,"")</f>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P6" s="8">
         <v>1</v>
@@ -7523,7 +7524,7 @@
       </c>
       <c r="R6" s="8">
         <f ca="1">M6</f>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="S6">
         <f ca="1">IFERROR(SMALL($P$6:$R$501,ROW(S1)),"")</f>
@@ -7552,21 +7553,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>79.976518002158997</v>
-      </c>
-      <c r="G7" s="4">
+        <v/>
+      </c>
+      <c r="G7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596.90220199999999</v>
+        <v/>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H70" ca="1" si="4">RANDBETWEEN(1,$A$2)</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I7" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H7,H7)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4" t="b">
         <f t="shared" ref="J7:J70" ca="1" si="5">INDEX($C$6:$C$304,H7)</f>
@@ -7574,15 +7575,15 @@
       </c>
       <c r="K7" s="4" t="b">
         <f t="shared" ref="K7:K70" ca="1" si="6">IF(AND(NOT(I7),NOT(J7)),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" ref="L7:L70" ca="1" si="7">IF(K7,L6+1,L6)</f>
-        <v>6</v>
-      </c>
-      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4" t="str">
         <f t="shared" ref="M7:M70" ca="1" si="8">IF(AND(K7,L7&lt;=$B$2),H7,"")</f>
-        <v>44</v>
+        <v/>
       </c>
       <c r="P7" s="8">
         <v>2</v>
@@ -7591,9 +7592,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="8" t="str">
         <f t="shared" ref="R7:R70" ca="1" si="9">M7</f>
-        <v>44</v>
+        <v/>
       </c>
       <c r="S7">
         <f t="shared" ref="S7:S70" ca="1" si="10">IFERROR(SMALL($P$6:$R$501,ROW(S2)),"")</f>
@@ -7624,15 +7625,15 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>53.782058641583461</v>
+        <v>15.795539381414653</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>592.520759</v>
+        <v>596.30319399999996</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I8" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H8,H8)&gt;1,TRUE,FALSE)</f>
@@ -7648,11 +7649,11 @@
       </c>
       <c r="L8" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P8" s="8">
         <f>H3</f>
@@ -7664,7 +7665,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="10"/>
@@ -7695,15 +7696,15 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>71.445931883603834</v>
+        <v>88.101699130889472</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>593.03289199999995</v>
+        <v>597.285122</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H9,H9)&gt;1,TRUE,FALSE)</f>
@@ -7719,11 +7720,11 @@
       </c>
       <c r="L9" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P9" s="8">
         <f>H4</f>
@@ -7735,7 +7736,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="10"/>
@@ -7766,15 +7767,15 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>61.200961045879303</v>
+        <v>51.924121820209251</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>591.20973199999992</v>
+        <v>593.24104199999999</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H10,H10)&gt;1,TRUE,FALSE)</f>
@@ -7790,11 +7791,11 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7802,19 +7803,19 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>9.7060966261331316</v>
+        <v>7.0428778393505995</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>596.51881899999989</v>
+        <v>596.44143599999995</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
@@ -7831,21 +7832,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>66.531407082366414</v>
-      </c>
-      <c r="G11" s="4">
+        <v/>
+      </c>
+      <c r="G11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>591.28118799999993</v>
+        <v/>
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I11" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H11,H11)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -7853,23 +7854,23 @@
       </c>
       <c r="K11" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M11" s="4">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v/>
       </c>
       <c r="Q11" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v/>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="10"/>
@@ -7900,15 +7901,15 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>70.119976724951684</v>
+        <v>40.244824750354198</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>592.43560099999991</v>
+        <v>594.57256599999994</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I12" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H12,H12)&gt;1,TRUE,FALSE)</f>
@@ -7924,11 +7925,11 @@
       </c>
       <c r="L12" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="8" t="str">
         <f t="shared" si="3"/>
@@ -7936,7 +7937,7 @@
       </c>
       <c r="R12" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="10"/>
@@ -7991,7 +7992,7 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -8007,15 +8008,15 @@
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>22.673537475653031</v>
+        <v>15.795539381414653</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>596.66105399999992</v>
+        <v>596.30319399999996</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
@@ -8034,15 +8035,15 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>73.845710078514472</v>
+        <v>73.030738971069312</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>593.61015499999996</v>
+        <v>593.26788099999999</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H14,H14)&gt;1,TRUE,FALSE)</f>
@@ -8058,11 +8059,11 @@
       </c>
       <c r="L14" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8070,19 +8071,19 @@
       </c>
       <c r="R14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>29.429046521140197</v>
+        <v>17.694540459232748</v>
       </c>
       <c r="U14" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>596.21382799999992</v>
+        <v>596.29378599999995</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
@@ -8109,7 +8110,7 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H15,H15)&gt;1,TRUE,FALSE)</f>
@@ -8125,7 +8126,7 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -8141,15 +8142,15 @@
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>35.171070249955633</v>
+        <v>25.015627813695463</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>595.06204600000001</v>
+        <v>596.5950489999999</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -8168,15 +8169,15 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>105.81941266323285</v>
+        <v>17.694540459232748</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>597.05117399999995</v>
+        <v>596.29378599999995</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H16,H16)&gt;1,TRUE,FALSE)</f>
@@ -8192,11 +8193,11 @@
       </c>
       <c r="L16" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8204,19 +8205,19 @@
       </c>
       <c r="R16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>37.025520412360549</v>
+        <v>29.429046521140197</v>
       </c>
       <c r="U16" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>594.911697</v>
+        <v>596.21382799999992</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -8235,15 +8236,15 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7060966261331316</v>
+        <v>71.445931883603834</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>596.51881899999989</v>
+        <v>593.03289199999995</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I17" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H17,H17)&gt;1,TRUE,FALSE)</f>
@@ -8259,11 +8260,11 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8271,19 +8272,19 @@
       </c>
       <c r="R17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>44.902765369336663</v>
+        <v>31.422178810405711</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>594.28614999999991</v>
+        <v>596.00709699999993</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -8302,15 +8303,15 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5228134309305599</v>
+        <v>51.259454854785211</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>596.05679499999997</v>
+        <v>593.63709599999993</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I18" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H18,H18)&gt;1,TRUE,FALSE)</f>
@@ -8326,11 +8327,11 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8338,19 +8339,19 @@
       </c>
       <c r="R18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>50.117991679524721</v>
+        <v>35.171070249955633</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>593.97601399999996</v>
+        <v>595.06204600000001</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -8367,21 +8368,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="4" t="str">
+      <c r="F19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="4" t="str">
+        <v>47.98799341988947</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>594.25388399999997</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I19" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H19,H19)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -8389,35 +8390,35 @@
       </c>
       <c r="K19" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="M19" s="4" t="str">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="Q19" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R19" s="8" t="str">
+      <c r="R19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>51.924121820209251</v>
+        <v>40.244824750354198</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>593.24104199999999</v>
+        <v>594.57256599999994</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -8436,15 +8437,15 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>88.101699130889472</v>
+        <v>112.54096619313809</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>597.285122</v>
+        <v>596.59321699999998</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I20" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H20,H20)&gt;1,TRUE,FALSE)</f>
@@ -8460,11 +8461,11 @@
       </c>
       <c r="L20" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8472,19 +8473,19 @@
       </c>
       <c r="R20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>53.782058641583461</v>
+        <v>47.98799341988947</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>592.520759</v>
+        <v>594.25388399999997</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -8503,15 +8504,15 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>50.117991679524721</v>
+        <v>56.094335726947179</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>593.97601399999996</v>
+        <v>591.67169699999999</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I21" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H21,H21)&gt;1,TRUE,FALSE)</f>
@@ -8527,11 +8528,11 @@
       </c>
       <c r="L21" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8539,19 +8540,19 @@
       </c>
       <c r="R21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>57.514926493651132</v>
+        <v>50.117991679524721</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>591.29049599999996</v>
+        <v>593.97601399999996</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
@@ -8568,21 +8569,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="4" t="str">
+      <c r="F22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="4" t="str">
+        <v>98.112336891028065</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>597.25538599999993</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I22" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H22,H22)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -8590,35 +8591,35 @@
       </c>
       <c r="K22" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" ca="1" si="7"/>
         <v>18</v>
       </c>
-      <c r="M22" s="4" t="str">
+      <c r="M22" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="Q22" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R22" s="8" t="str">
+      <c r="R22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>59.055643659944828</v>
+        <v>51.259454854785211</v>
       </c>
       <c r="U22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>591.04247999999995</v>
+        <v>593.63709599999993</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
@@ -8637,15 +8638,15 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>14.32791119928666</v>
+        <v>25.015627813695463</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>596.56455499999993</v>
+        <v>596.5950489999999</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I23" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H23,H23)&gt;1,TRUE,FALSE)</f>
@@ -8665,7 +8666,7 @@
       </c>
       <c r="M23" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="8" t="str">
         <f t="shared" si="3"/>
@@ -8673,19 +8674,19 @@
       </c>
       <c r="R23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>61.200961045879303</v>
+        <v>51.924121820209251</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>591.20973199999992</v>
+        <v>593.24104199999999</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -8702,21 +8703,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="4" t="str">
+      <c r="F24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="4" t="str">
+        <v>31.422178810405711</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>596.00709699999993</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I24" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H24,H24)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -8724,35 +8725,35 @@
       </c>
       <c r="K24" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="M24" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="Q24" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R24" s="8" t="str">
+      <c r="R24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>64.40583426003991</v>
+        <v>53.782058641583461</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>591.08148499999993</v>
+        <v>592.520759</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -8779,7 +8780,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H25,H25)&gt;1,TRUE,FALSE)</f>
@@ -8795,7 +8796,7 @@
       </c>
       <c r="L25" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -8811,15 +8812,15 @@
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>66.531407082366414</v>
+        <v>56.094335726947179</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>591.28118799999993</v>
+        <v>591.67169699999999</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -8862,7 +8863,7 @@
       </c>
       <c r="L26" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -8878,15 +8879,15 @@
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>68.919076085784525</v>
+        <v>61.200961045879303</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>591.91285399999992</v>
+        <v>591.20973199999992</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -8903,21 +8904,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>94.156505546722912</v>
-      </c>
-      <c r="G27" s="4">
+        <v/>
+      </c>
+      <c r="G27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>597.10817099999997</v>
+        <v/>
       </c>
       <c r="H27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I27" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H27,H27)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -8925,35 +8926,35 @@
       </c>
       <c r="K27" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v/>
       </c>
       <c r="Q27" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v/>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>70.119976724951684</v>
+        <v>68.085815748975833</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>592.43560099999991</v>
+        <v>591.65495799999997</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
@@ -8970,13 +8971,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="4" t="str">
+      <c r="F28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="4" t="str">
+        <v>73.845710078514472</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>593.61015499999996</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -8984,7 +8985,7 @@
       </c>
       <c r="I28" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H28,H28)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -8992,23 +8993,23 @@
       </c>
       <c r="K28" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="M28" s="4" t="str">
+        <v>21</v>
+      </c>
+      <c r="M28" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>39</v>
       </c>
       <c r="Q28" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R28" s="8" t="str">
+      <c r="R28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>39</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="10"/>
@@ -9047,7 +9048,7 @@
       </c>
       <c r="H29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I29" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H29,H29)&gt;1,TRUE,FALSE)</f>
@@ -9063,7 +9064,7 @@
       </c>
       <c r="L29" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -9104,21 +9105,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="4" t="str">
+      <c r="F30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="4" t="str">
+        <v>102.09750505196772</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>597.15063399999997</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I30" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H30,H30)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -9126,23 +9127,23 @@
       </c>
       <c r="K30" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="M30" s="4" t="str">
+        <v>22</v>
+      </c>
+      <c r="M30" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>51</v>
       </c>
       <c r="Q30" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R30" s="8" t="str">
+      <c r="R30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>51</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="10"/>
@@ -9171,21 +9172,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29.429046521140197</v>
-      </c>
-      <c r="G31" s="4">
+        <v/>
+      </c>
+      <c r="G31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596.21382799999992</v>
+        <v/>
       </c>
       <c r="H31" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I31" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H31,H31)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -9193,35 +9194,35 @@
       </c>
       <c r="K31" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="M31" s="4">
+        <v>22</v>
+      </c>
+      <c r="M31" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v/>
       </c>
       <c r="Q31" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v/>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T31" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>77.745147133501845</v>
+        <v>75.103268415752353</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>596.01555499999995</v>
+        <v>594.41669999999999</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
@@ -9238,21 +9239,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="4" t="str">
+      <c r="F32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="4" t="str">
+        <v>105.81941266323285</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>597.05117399999995</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I32" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H32,H32)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -9260,23 +9261,23 @@
       </c>
       <c r="K32" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="M32" s="4" t="str">
+        <v>23</v>
+      </c>
+      <c r="M32" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>52</v>
       </c>
       <c r="Q32" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R32" s="8" t="str">
+      <c r="R32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>52</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="10"/>
@@ -9307,15 +9308,15 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>35.171070249955633</v>
+        <v>14.32791119928666</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>595.06204600000001</v>
+        <v>596.56455499999993</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I33" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H33,H33)&gt;1,TRUE,FALSE)</f>
@@ -9331,11 +9332,11 @@
       </c>
       <c r="L33" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9343,19 +9344,19 @@
       </c>
       <c r="R33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T33" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>82.205157048392735</v>
+        <v>88.101699130889472</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>596.93220099999996</v>
+        <v>597.285122</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
@@ -9374,15 +9375,15 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>98.112336891028065</v>
+        <v>35.171070249955633</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>597.25538599999993</v>
+        <v>595.06204600000001</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I34" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H34,H34)&gt;1,TRUE,FALSE)</f>
@@ -9398,11 +9399,11 @@
       </c>
       <c r="L34" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M34" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9410,19 +9411,19 @@
       </c>
       <c r="R34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="S34">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T34" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>84.784141459288321</v>
+        <v>98.112336891028065</v>
       </c>
       <c r="U34" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>597.1480029999999</v>
+        <v>597.25538599999993</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
@@ -9449,7 +9450,7 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H35,H35)&gt;1,TRUE,FALSE)</f>
@@ -9465,7 +9466,7 @@
       </c>
       <c r="L35" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -9481,15 +9482,15 @@
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T35" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>88.101699130889472</v>
+        <v>102.09750505196772</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>597.285122</v>
+        <v>597.15063399999997</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
@@ -9506,21 +9507,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>77.745147133501845</v>
-      </c>
-      <c r="G36" s="4">
+        <v/>
+      </c>
+      <c r="G36" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596.01555499999995</v>
+        <v/>
       </c>
       <c r="H36" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I36" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H36,H36)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -9528,35 +9529,35 @@
       </c>
       <c r="K36" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="M36" s="4">
+        <v>25</v>
+      </c>
+      <c r="M36" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v/>
       </c>
       <c r="Q36" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v/>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T36" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>94.156505546722912</v>
+        <v>105.81941266323285</v>
       </c>
       <c r="U36" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>597.10817099999997</v>
+        <v>597.05117399999995</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
@@ -9583,7 +9584,7 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I37" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H37,H37)&gt;1,TRUE,FALSE)</f>
@@ -9599,7 +9600,7 @@
       </c>
       <c r="L37" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -9615,15 +9616,15 @@
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T37" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>98.112336891028065</v>
+        <v>109.13389189100963</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>597.25538599999993</v>
+        <v>596.70034799999996</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -9642,15 +9643,15 @@
       </c>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>57.514926493651132</v>
+        <v>68.085815748975833</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>591.29049599999996</v>
+        <v>591.65495799999997</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I38" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H38,H38)&gt;1,TRUE,FALSE)</f>
@@ -9666,11 +9667,11 @@
       </c>
       <c r="L38" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M38" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9678,19 +9679,19 @@
       </c>
       <c r="R38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T38" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>105.81941266323285</v>
+        <v>112.54096619313809</v>
       </c>
       <c r="U38" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>597.05117399999995</v>
+        <v>596.59321699999998</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -9707,21 +9708,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="4" t="str">
+      <c r="F39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="4" t="str">
+        <v>53.782058641583461</v>
+      </c>
+      <c r="G39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>592.520759</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I39" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H39,H39)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -9729,23 +9730,23 @@
       </c>
       <c r="K39" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="M39" s="4" t="str">
+        <v>27</v>
+      </c>
+      <c r="M39" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="Q39" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R39" s="8" t="str">
+      <c r="R39" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="10"/>
@@ -9774,21 +9775,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>37.025520412360549</v>
-      </c>
-      <c r="G40" s="4">
+        <v/>
+      </c>
+      <c r="G40" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>594.911697</v>
+        <v/>
       </c>
       <c r="H40" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I40" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H40,H40)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -9796,23 +9797,23 @@
       </c>
       <c r="K40" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="M40" s="4">
+        <v>27</v>
+      </c>
+      <c r="M40" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v/>
       </c>
       <c r="Q40" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v/>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="10"/>
@@ -9843,15 +9844,15 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>59.055643659944828</v>
+        <v>75.103268415752353</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>591.04247999999995</v>
+        <v>594.41669999999999</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I41" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H41,H41)&gt;1,TRUE,FALSE)</f>
@@ -9867,11 +9868,11 @@
       </c>
       <c r="L41" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M41" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="8" t="str">
         <f t="shared" si="3"/>
@@ -9879,7 +9880,7 @@
       </c>
       <c r="R41" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -9908,21 +9909,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>68.919076085784525</v>
-      </c>
-      <c r="G42" s="4">
+        <v/>
+      </c>
+      <c r="G42" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>591.91285399999992</v>
+        <v/>
       </c>
       <c r="H42" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I42" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H42,H42)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -9930,23 +9931,23 @@
       </c>
       <c r="K42" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" ca="1" si="7"/>
         <v>28</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v/>
       </c>
       <c r="Q42" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R42" s="8">
+      <c r="R42" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v/>
       </c>
       <c r="S42" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -9985,7 +9986,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I43" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H43,H43)&gt;1,TRUE,FALSE)</f>
@@ -10042,21 +10043,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>51.924121820209251</v>
-      </c>
-      <c r="G44" s="4">
+        <v/>
+      </c>
+      <c r="G44" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>593.24104199999999</v>
+        <v/>
       </c>
       <c r="H44" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H44,H44)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10064,23 +10065,23 @@
       </c>
       <c r="K44" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="M44" s="4">
+        <v>28</v>
+      </c>
+      <c r="M44" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v/>
       </c>
       <c r="Q44" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v/>
       </c>
       <c r="S44" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10109,21 +10110,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F45" s="4" t="str">
+      <c r="F45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="4" t="str">
+        <v>61.200961045879303</v>
+      </c>
+      <c r="G45" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>591.20973199999992</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I45" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H45,H45)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10131,23 +10132,23 @@
       </c>
       <c r="K45" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" ca="1" si="7"/>
         <v>29</v>
       </c>
-      <c r="M45" s="4" t="str">
+      <c r="M45" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="Q45" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R45" s="8" t="str">
+      <c r="R45" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="S45" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10176,21 +10177,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F46" s="4" t="str">
+      <c r="F46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" s="4" t="str">
+        <v>79.976518002158997</v>
+      </c>
+      <c r="G46" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>596.90220199999999</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I46" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H46,H46)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10198,23 +10199,23 @@
       </c>
       <c r="K46" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="M46" s="4" t="str">
+        <v>30</v>
+      </c>
+      <c r="M46" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>44</v>
       </c>
       <c r="Q46" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R46" s="8" t="str">
+      <c r="R46" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>44</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10245,15 +10246,15 @@
       </c>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>73.030738971069312</v>
+        <v>50.117991679524721</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>593.26788099999999</v>
+        <v>593.97601399999996</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I47" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H47,H47)&gt;1,TRUE,FALSE)</f>
@@ -10269,11 +10270,11 @@
       </c>
       <c r="L47" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q47" s="8" t="str">
         <f t="shared" si="3"/>
@@ -10281,7 +10282,7 @@
       </c>
       <c r="R47" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10336,7 +10337,7 @@
       </c>
       <c r="L48" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -10387,7 +10388,7 @@
       </c>
       <c r="H49" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I49" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H49,H49)&gt;1,TRUE,FALSE)</f>
@@ -10403,7 +10404,7 @@
       </c>
       <c r="L49" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -10444,21 +10445,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F50" s="4" t="str">
+      <c r="F50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="4" t="str">
+        <v>5.5228134309305599</v>
+      </c>
+      <c r="G50" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>596.05679499999997</v>
       </c>
       <c r="H50" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I50" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H50,H50)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10466,23 +10467,23 @@
       </c>
       <c r="K50" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="M50" s="4" t="str">
+        <v>32</v>
+      </c>
+      <c r="M50" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q50" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R50" s="8" t="str">
+      <c r="R50" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10521,7 +10522,7 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I51" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H51,H51)&gt;1,TRUE,FALSE)</f>
@@ -10537,7 +10538,7 @@
       </c>
       <c r="L51" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -10588,7 +10589,7 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I52" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H52,H52)&gt;1,TRUE,FALSE)</f>
@@ -10604,7 +10605,7 @@
       </c>
       <c r="L52" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -10645,21 +10646,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>84.784141459288321</v>
-      </c>
-      <c r="G53" s="4">
+        <v/>
+      </c>
+      <c r="G53" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>597.1480029999999</v>
+        <v/>
       </c>
       <c r="H53" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I53" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H53,H53)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10667,23 +10668,23 @@
       </c>
       <c r="K53" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="M53" s="4">
+        <v>32</v>
+      </c>
+      <c r="M53" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v/>
       </c>
       <c r="Q53" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R53" s="8">
+      <c r="R53" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v/>
       </c>
       <c r="S53" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10712,21 +10713,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>82.205157048392735</v>
-      </c>
-      <c r="G54" s="4">
+        <v/>
+      </c>
+      <c r="G54" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596.93220099999996</v>
+        <v/>
       </c>
       <c r="H54" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I54" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H54,H54)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10734,23 +10735,23 @@
       </c>
       <c r="K54" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" ca="1" si="7"/>
         <v>32</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v/>
       </c>
       <c r="Q54" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R54" s="8">
+      <c r="R54" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v/>
       </c>
       <c r="S54" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10779,21 +10780,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>44.902765369336663</v>
-      </c>
-      <c r="G55" s="4">
+        <v/>
+      </c>
+      <c r="G55" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>594.28614999999991</v>
+        <v/>
       </c>
       <c r="H55" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I55" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H55,H55)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10801,23 +10802,23 @@
       </c>
       <c r="K55" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="M55" s="4">
+        <v>32</v>
+      </c>
+      <c r="M55" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v/>
       </c>
       <c r="Q55" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R55" s="8">
+      <c r="R55" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v/>
       </c>
       <c r="S55" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10846,21 +10847,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F56" s="4" t="str">
+      <c r="F56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="4" t="str">
+        <v>7.0428778393505995</v>
+      </c>
+      <c r="G56" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>596.44143599999995</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I56" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H56,H56)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10868,23 +10869,23 @@
       </c>
       <c r="K56" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" ca="1" si="7"/>
         <v>33</v>
       </c>
-      <c r="M56" s="4" t="str">
+      <c r="M56" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q56" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R56" s="8" t="str">
+      <c r="R56" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10913,21 +10914,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22.673537475653031</v>
-      </c>
-      <c r="G57" s="4">
+        <v/>
+      </c>
+      <c r="G57" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596.66105399999992</v>
+        <v/>
       </c>
       <c r="H57" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I57" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H57,H57)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -10935,23 +10936,23 @@
       </c>
       <c r="K57" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="M57" s="4">
+        <v>33</v>
+      </c>
+      <c r="M57" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="Q57" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R57" s="8">
+      <c r="R57" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="S57" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -10990,7 +10991,7 @@
       </c>
       <c r="H58" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I58" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H58,H58)&gt;1,TRUE,FALSE)</f>
@@ -11006,7 +11007,7 @@
       </c>
       <c r="L58" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M58" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11057,7 +11058,7 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I59" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H59,H59)&gt;1,TRUE,FALSE)</f>
@@ -11073,7 +11074,7 @@
       </c>
       <c r="L59" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11124,7 +11125,7 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="I60" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H60,H60)&gt;1,TRUE,FALSE)</f>
@@ -11140,7 +11141,7 @@
       </c>
       <c r="L60" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M60" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11191,7 +11192,7 @@
       </c>
       <c r="H61" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I61" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H61,H61)&gt;1,TRUE,FALSE)</f>
@@ -11207,7 +11208,7 @@
       </c>
       <c r="L61" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11244,21 +11245,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11.857501385178857</v>
-      </c>
-      <c r="G62" s="4">
+        <v/>
+      </c>
+      <c r="G62" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596.48008099999993</v>
+        <v/>
       </c>
       <c r="H62" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="I62" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H62,H62)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -11266,23 +11267,23 @@
       </c>
       <c r="K62" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="M62" s="4">
+        <v>33</v>
+      </c>
+      <c r="M62" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="Q62" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R62" s="8">
+      <c r="R62" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="S62" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -11317,11 +11318,11 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H63,H63)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -11329,11 +11330,11 @@
       </c>
       <c r="K63" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11380,7 +11381,7 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I64" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H64,H64)&gt;1,TRUE,FALSE)</f>
@@ -11396,7 +11397,7 @@
       </c>
       <c r="L64" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11443,11 +11444,11 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I65" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H65,H65)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -11455,11 +11456,11 @@
       </c>
       <c r="K65" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11506,7 +11507,7 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I66" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H66,H66)&gt;1,TRUE,FALSE)</f>
@@ -11522,7 +11523,7 @@
       </c>
       <c r="L66" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11569,7 +11570,7 @@
       </c>
       <c r="H67" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I67" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H67,H67)&gt;1,TRUE,FALSE)</f>
@@ -11585,7 +11586,7 @@
       </c>
       <c r="L67" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M67" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11622,17 +11623,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F68" s="4" t="str">
+      <c r="F68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G68" s="4" t="str">
+        <v>11.857501385178857</v>
+      </c>
+      <c r="G68" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>596.48008099999993</v>
       </c>
       <c r="H68" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I68" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H68,H68)&gt;1,TRUE,FALSE)</f>
@@ -11648,19 +11649,19 @@
       </c>
       <c r="L68" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="M68" s="4" t="str">
+        <v>34</v>
+      </c>
+      <c r="M68" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="Q68" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R68" s="8" t="str">
+      <c r="R68" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="S68" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -11695,11 +11696,11 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I69" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H69,H69)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -11707,11 +11708,11 @@
       </c>
       <c r="K69" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M69" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11758,11 +11759,11 @@
       </c>
       <c r="H70" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I70" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H70,H70)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="4" t="b">
         <f t="shared" ca="1" si="5"/>
@@ -11770,11 +11771,11 @@
       </c>
       <c r="K70" s="4" t="b">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M70" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -11821,11 +11822,11 @@
       </c>
       <c r="H71" s="4">
         <f t="shared" ref="H71:H134" ca="1" si="17">RANDBETWEEN(1,$A$2)</f>
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I71" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H71,H71)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="4" t="b">
         <f t="shared" ref="J71:J134" ca="1" si="18">INDEX($C$6:$C$304,H71)</f>
@@ -11833,11 +11834,11 @@
       </c>
       <c r="K71" s="4" t="b">
         <f t="shared" ref="K71:K134" ca="1" si="19">IF(AND(NOT(I71),NOT(J71)),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" ref="L71:L134" ca="1" si="20">IF(K71,L70+1,L70)</f>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M71" s="4" t="str">
         <f t="shared" ref="M71:M134" ca="1" si="21">IF(AND(K71,L71&lt;=$B$2),H71,"")</f>
@@ -11884,7 +11885,7 @@
       </c>
       <c r="H72" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I72" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H72,H72)&gt;1,TRUE,FALSE)</f>
@@ -11900,7 +11901,7 @@
       </c>
       <c r="L72" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M72" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -11947,11 +11948,11 @@
       </c>
       <c r="H73" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I73" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H73,H73)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -11959,11 +11960,11 @@
       </c>
       <c r="K73" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M73" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12010,7 +12011,7 @@
       </c>
       <c r="H74" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I74" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H74,H74)&gt;1,TRUE,FALSE)</f>
@@ -12026,7 +12027,7 @@
       </c>
       <c r="L74" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M74" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12063,21 +12064,21 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="F75" s="4" t="str">
+      <c r="F75" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="G75" s="4" t="str">
+        <v>29.429046521140197</v>
+      </c>
+      <c r="G75" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>596.21382799999992</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I75" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H75,H75)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -12085,23 +12086,23 @@
       </c>
       <c r="K75" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
-      </c>
-      <c r="M75" s="4" t="str">
+        <v>35</v>
+      </c>
+      <c r="M75" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="Q75" s="8" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="R75" s="8" t="str">
+      <c r="R75" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -12136,7 +12137,7 @@
       </c>
       <c r="H76" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I76" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H76,H76)&gt;1,TRUE,FALSE)</f>
@@ -12152,7 +12153,7 @@
       </c>
       <c r="L76" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M76" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12199,7 +12200,7 @@
       </c>
       <c r="H77" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I77" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H77,H77)&gt;1,TRUE,FALSE)</f>
@@ -12215,7 +12216,7 @@
       </c>
       <c r="L77" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M77" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12260,7 +12261,7 @@
       </c>
       <c r="H78" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I78" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H78,H78)&gt;1,TRUE,FALSE)</f>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="L78" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M78" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12321,7 +12322,7 @@
       </c>
       <c r="H79" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I79" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H79,H79)&gt;1,TRUE,FALSE)</f>
@@ -12337,7 +12338,7 @@
       </c>
       <c r="L79" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M79" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12382,7 +12383,7 @@
       </c>
       <c r="H80" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I80" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H80,H80)&gt;1,TRUE,FALSE)</f>
@@ -12398,7 +12399,7 @@
       </c>
       <c r="L80" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M80" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12447,7 +12448,7 @@
       </c>
       <c r="I81" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H81,H81)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -12455,11 +12456,11 @@
       </c>
       <c r="K81" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M81" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12504,7 +12505,7 @@
       </c>
       <c r="H82" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I82" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H82,H82)&gt;1,TRUE,FALSE)</f>
@@ -12520,7 +12521,7 @@
       </c>
       <c r="L82" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M82" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12565,11 +12566,11 @@
       </c>
       <c r="H83" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I83" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H83,H83)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -12577,11 +12578,11 @@
       </c>
       <c r="K83" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M83" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12626,7 +12627,7 @@
       </c>
       <c r="H84" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I84" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H84,H84)&gt;1,TRUE,FALSE)</f>
@@ -12642,7 +12643,7 @@
       </c>
       <c r="L84" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M84" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12687,11 +12688,11 @@
       </c>
       <c r="H85" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I85" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H85,H85)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -12699,11 +12700,11 @@
       </c>
       <c r="K85" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M85" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12748,7 +12749,7 @@
       </c>
       <c r="H86" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I86" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H86,H86)&gt;1,TRUE,FALSE)</f>
@@ -12764,7 +12765,7 @@
       </c>
       <c r="L86" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M86" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12809,7 +12810,7 @@
       </c>
       <c r="H87" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I87" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H87,H87)&gt;1,TRUE,FALSE)</f>
@@ -12825,7 +12826,7 @@
       </c>
       <c r="L87" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M87" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12870,11 +12871,11 @@
       </c>
       <c r="H88" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I88" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H88,H88)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -12882,11 +12883,11 @@
       </c>
       <c r="K88" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M88" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12931,7 +12932,7 @@
       </c>
       <c r="H89" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I89" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H89,H89)&gt;1,TRUE,FALSE)</f>
@@ -12947,7 +12948,7 @@
       </c>
       <c r="L89" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M89" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12992,7 +12993,7 @@
       </c>
       <c r="H90" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I90" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H90,H90)&gt;1,TRUE,FALSE)</f>
@@ -13008,7 +13009,7 @@
       </c>
       <c r="L90" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M90" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13053,7 +13054,7 @@
       </c>
       <c r="H91" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I91" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H91,H91)&gt;1,TRUE,FALSE)</f>
@@ -13069,7 +13070,7 @@
       </c>
       <c r="L91" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M91" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13114,7 +13115,7 @@
       </c>
       <c r="H92" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I92" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H92,H92)&gt;1,TRUE,FALSE)</f>
@@ -13130,7 +13131,7 @@
       </c>
       <c r="L92" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M92" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13175,7 +13176,7 @@
       </c>
       <c r="H93" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I93" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H93,H93)&gt;1,TRUE,FALSE)</f>
@@ -13191,7 +13192,7 @@
       </c>
       <c r="L93" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M93" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="H94" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I94" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H94,H94)&gt;1,TRUE,FALSE)</f>
@@ -13252,7 +13253,7 @@
       </c>
       <c r="L94" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M94" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13297,11 +13298,11 @@
       </c>
       <c r="H95" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I95" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H95,H95)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -13309,11 +13310,11 @@
       </c>
       <c r="K95" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M95" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13358,7 +13359,7 @@
       </c>
       <c r="H96" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I96" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H96,H96)&gt;1,TRUE,FALSE)</f>
@@ -13374,7 +13375,7 @@
       </c>
       <c r="L96" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M96" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13419,7 +13420,7 @@
       </c>
       <c r="H97" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I97" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H97,H97)&gt;1,TRUE,FALSE)</f>
@@ -13435,7 +13436,7 @@
       </c>
       <c r="L97" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M97" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13480,11 +13481,11 @@
       </c>
       <c r="H98" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I98" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H98,H98)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -13492,11 +13493,11 @@
       </c>
       <c r="K98" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M98" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13541,7 +13542,7 @@
       </c>
       <c r="H99" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I99" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H99,H99)&gt;1,TRUE,FALSE)</f>
@@ -13557,7 +13558,7 @@
       </c>
       <c r="L99" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M99" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13602,11 +13603,11 @@
       </c>
       <c r="H100" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I100" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H100,H100)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -13614,11 +13615,11 @@
       </c>
       <c r="K100" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M100" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13663,7 +13664,7 @@
       </c>
       <c r="H101" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I101" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H101,H101)&gt;1,TRUE,FALSE)</f>
@@ -13679,7 +13680,7 @@
       </c>
       <c r="L101" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M101" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13724,11 +13725,11 @@
       </c>
       <c r="H102" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I102" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H102,H102)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -13736,11 +13737,11 @@
       </c>
       <c r="K102" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M102" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13785,11 +13786,11 @@
       </c>
       <c r="H103" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I103" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H103,H103)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -13797,11 +13798,11 @@
       </c>
       <c r="K103" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M103" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13846,11 +13847,11 @@
       </c>
       <c r="H104" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I104" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H104,H104)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -13858,11 +13859,11 @@
       </c>
       <c r="K104" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M104" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13907,7 +13908,7 @@
       </c>
       <c r="H105" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I105" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H105,H105)&gt;1,TRUE,FALSE)</f>
@@ -13923,7 +13924,7 @@
       </c>
       <c r="L105" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M105" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13968,7 +13969,7 @@
       </c>
       <c r="H106" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I106" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H106,H106)&gt;1,TRUE,FALSE)</f>
@@ -13984,7 +13985,7 @@
       </c>
       <c r="L106" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M106" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14029,7 +14030,7 @@
       </c>
       <c r="H107" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I107" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H107,H107)&gt;1,TRUE,FALSE)</f>
@@ -14045,7 +14046,7 @@
       </c>
       <c r="L107" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M107" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14090,11 +14091,11 @@
       </c>
       <c r="H108" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I108" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H108,H108)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -14102,7 +14103,7 @@
       </c>
       <c r="K108" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="4">
         <f t="shared" ca="1" si="20"/>
@@ -14151,7 +14152,7 @@
       </c>
       <c r="H109" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I109" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H109,H109)&gt;1,TRUE,FALSE)</f>
@@ -14212,7 +14213,7 @@
       </c>
       <c r="H110" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I110" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H110,H110)&gt;1,TRUE,FALSE)</f>
@@ -14273,7 +14274,7 @@
       </c>
       <c r="H111" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I111" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H111,H111)&gt;1,TRUE,FALSE)</f>
@@ -14334,11 +14335,11 @@
       </c>
       <c r="H112" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I112" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H112,H112)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -14346,11 +14347,11 @@
       </c>
       <c r="K112" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M112" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14395,7 +14396,7 @@
       </c>
       <c r="H113" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I113" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H113,H113)&gt;1,TRUE,FALSE)</f>
@@ -14411,7 +14412,7 @@
       </c>
       <c r="L113" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M113" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14456,7 +14457,7 @@
       </c>
       <c r="H114" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I114" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H114,H114)&gt;1,TRUE,FALSE)</f>
@@ -14472,7 +14473,7 @@
       </c>
       <c r="L114" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M114" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14517,7 +14518,7 @@
       </c>
       <c r="H115" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I115" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H115,H115)&gt;1,TRUE,FALSE)</f>
@@ -14533,7 +14534,7 @@
       </c>
       <c r="L115" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M115" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14578,7 +14579,7 @@
       </c>
       <c r="H116" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I116" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H116,H116)&gt;1,TRUE,FALSE)</f>
@@ -14594,7 +14595,7 @@
       </c>
       <c r="L116" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M116" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14655,7 +14656,7 @@
       </c>
       <c r="L117" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M117" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14700,7 +14701,7 @@
       </c>
       <c r="H118" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I118" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H118,H118)&gt;1,TRUE,FALSE)</f>
@@ -14716,7 +14717,7 @@
       </c>
       <c r="L118" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M118" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14761,7 +14762,7 @@
       </c>
       <c r="H119" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I119" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H119,H119)&gt;1,TRUE,FALSE)</f>
@@ -14777,7 +14778,7 @@
       </c>
       <c r="L119" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M119" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14822,7 +14823,7 @@
       </c>
       <c r="H120" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I120" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H120,H120)&gt;1,TRUE,FALSE)</f>
@@ -14838,7 +14839,7 @@
       </c>
       <c r="L120" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M120" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14883,7 +14884,7 @@
       </c>
       <c r="H121" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I121" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H121,H121)&gt;1,TRUE,FALSE)</f>
@@ -14899,7 +14900,7 @@
       </c>
       <c r="L121" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M121" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -14944,7 +14945,7 @@
       </c>
       <c r="H122" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="I122" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H122,H122)&gt;1,TRUE,FALSE)</f>
@@ -14960,7 +14961,7 @@
       </c>
       <c r="L122" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M122" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15005,7 +15006,7 @@
       </c>
       <c r="H123" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I123" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H123,H123)&gt;1,TRUE,FALSE)</f>
@@ -15021,7 +15022,7 @@
       </c>
       <c r="L123" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M123" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="H124" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I124" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H124,H124)&gt;1,TRUE,FALSE)</f>
@@ -15082,7 +15083,7 @@
       </c>
       <c r="L124" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M124" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15127,7 +15128,7 @@
       </c>
       <c r="H125" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="I125" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H125,H125)&gt;1,TRUE,FALSE)</f>
@@ -15143,7 +15144,7 @@
       </c>
       <c r="L125" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M125" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15188,7 +15189,7 @@
       </c>
       <c r="H126" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I126" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H126,H126)&gt;1,TRUE,FALSE)</f>
@@ -15204,7 +15205,7 @@
       </c>
       <c r="L126" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M126" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15249,7 +15250,7 @@
       </c>
       <c r="H127" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I127" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H127,H127)&gt;1,TRUE,FALSE)</f>
@@ -15265,7 +15266,7 @@
       </c>
       <c r="L127" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M127" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15310,7 +15311,7 @@
       </c>
       <c r="H128" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I128" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H128,H128)&gt;1,TRUE,FALSE)</f>
@@ -15326,7 +15327,7 @@
       </c>
       <c r="L128" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M128" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15371,7 +15372,7 @@
       </c>
       <c r="H129" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I129" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H129,H129)&gt;1,TRUE,FALSE)</f>
@@ -15387,7 +15388,7 @@
       </c>
       <c r="L129" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M129" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15432,11 +15433,11 @@
       </c>
       <c r="H130" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I130" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H130,H130)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -15444,11 +15445,11 @@
       </c>
       <c r="K130" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M130" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15493,11 +15494,11 @@
       </c>
       <c r="H131" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I131" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H131,H131)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="4" t="b">
         <f t="shared" ca="1" si="18"/>
@@ -15505,11 +15506,11 @@
       </c>
       <c r="K131" s="4" t="b">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M131" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15554,7 +15555,7 @@
       </c>
       <c r="H132" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I132" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H132,H132)&gt;1,TRUE,FALSE)</f>
@@ -15570,7 +15571,7 @@
       </c>
       <c r="L132" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M132" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15615,7 +15616,7 @@
       </c>
       <c r="H133" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I133" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H133,H133)&gt;1,TRUE,FALSE)</f>
@@ -15631,7 +15632,7 @@
       </c>
       <c r="L133" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M133" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15676,7 +15677,7 @@
       </c>
       <c r="H134" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I134" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H134,H134)&gt;1,TRUE,FALSE)</f>
@@ -15692,7 +15693,7 @@
       </c>
       <c r="L134" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M134" s="4" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -15737,7 +15738,7 @@
       </c>
       <c r="H135" s="4">
         <f t="shared" ref="H135:H198" ca="1" si="30">RANDBETWEEN(1,$A$2)</f>
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I135" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H135,H135)&gt;1,TRUE,FALSE)</f>
@@ -15753,7 +15754,7 @@
       </c>
       <c r="L135" s="4">
         <f t="shared" ref="L135:L198" ca="1" si="33">IF(K135,L134+1,L134)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M135" s="4" t="str">
         <f t="shared" ref="M135:M198" ca="1" si="34">IF(AND(K135,L135&lt;=$B$2),H135,"")</f>
@@ -15798,11 +15799,11 @@
       </c>
       <c r="H136" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I136" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H136,H136)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -15810,11 +15811,11 @@
       </c>
       <c r="K136" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M136" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -15859,7 +15860,7 @@
       </c>
       <c r="H137" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I137" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H137,H137)&gt;1,TRUE,FALSE)</f>
@@ -15875,7 +15876,7 @@
       </c>
       <c r="L137" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M137" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -15920,7 +15921,7 @@
       </c>
       <c r="H138" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I138" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H138,H138)&gt;1,TRUE,FALSE)</f>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="L138" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M138" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -15981,7 +15982,7 @@
       </c>
       <c r="H139" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I139" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H139,H139)&gt;1,TRUE,FALSE)</f>
@@ -15997,7 +15998,7 @@
       </c>
       <c r="L139" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M139" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16042,7 +16043,7 @@
       </c>
       <c r="H140" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I140" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H140,H140)&gt;1,TRUE,FALSE)</f>
@@ -16058,7 +16059,7 @@
       </c>
       <c r="L140" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M140" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16103,7 +16104,7 @@
       </c>
       <c r="H141" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I141" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H141,H141)&gt;1,TRUE,FALSE)</f>
@@ -16119,7 +16120,7 @@
       </c>
       <c r="L141" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M141" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16164,11 +16165,11 @@
       </c>
       <c r="H142" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I142" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H142,H142)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -16176,11 +16177,11 @@
       </c>
       <c r="K142" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M142" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16225,11 +16226,11 @@
       </c>
       <c r="H143" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I143" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H143,H143)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -16237,11 +16238,11 @@
       </c>
       <c r="K143" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M143" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16286,7 +16287,7 @@
       </c>
       <c r="H144" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I144" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H144,H144)&gt;1,TRUE,FALSE)</f>
@@ -16302,7 +16303,7 @@
       </c>
       <c r="L144" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M144" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16347,11 +16348,11 @@
       </c>
       <c r="H145" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="I145" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H145,H145)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -16359,11 +16360,11 @@
       </c>
       <c r="K145" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M145" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16408,7 +16409,7 @@
       </c>
       <c r="H146" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I146" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H146,H146)&gt;1,TRUE,FALSE)</f>
@@ -16424,7 +16425,7 @@
       </c>
       <c r="L146" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M146" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16469,11 +16470,11 @@
       </c>
       <c r="H147" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I147" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H147,H147)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -16481,11 +16482,11 @@
       </c>
       <c r="K147" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M147" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16530,11 +16531,11 @@
       </c>
       <c r="H148" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I148" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H148,H148)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -16542,11 +16543,11 @@
       </c>
       <c r="K148" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M148" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16591,7 +16592,7 @@
       </c>
       <c r="H149" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I149" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H149,H149)&gt;1,TRUE,FALSE)</f>
@@ -16607,7 +16608,7 @@
       </c>
       <c r="L149" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M149" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16652,7 +16653,7 @@
       </c>
       <c r="H150" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I150" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H150,H150)&gt;1,TRUE,FALSE)</f>
@@ -16668,7 +16669,7 @@
       </c>
       <c r="L150" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M150" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16713,11 +16714,11 @@
       </c>
       <c r="H151" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I151" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H151,H151)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -16725,11 +16726,11 @@
       </c>
       <c r="K151" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M151" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16774,7 +16775,7 @@
       </c>
       <c r="H152" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I152" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H152,H152)&gt;1,TRUE,FALSE)</f>
@@ -16790,7 +16791,7 @@
       </c>
       <c r="L152" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M152" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16835,7 +16836,7 @@
       </c>
       <c r="H153" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I153" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H153,H153)&gt;1,TRUE,FALSE)</f>
@@ -16851,7 +16852,7 @@
       </c>
       <c r="L153" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M153" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="H154" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I154" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H154,H154)&gt;1,TRUE,FALSE)</f>
@@ -16912,7 +16913,7 @@
       </c>
       <c r="L154" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M154" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -16957,7 +16958,7 @@
       </c>
       <c r="H155" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="I155" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H155,H155)&gt;1,TRUE,FALSE)</f>
@@ -16973,7 +16974,7 @@
       </c>
       <c r="L155" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M155" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17018,7 +17019,7 @@
       </c>
       <c r="H156" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I156" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H156,H156)&gt;1,TRUE,FALSE)</f>
@@ -17034,7 +17035,7 @@
       </c>
       <c r="L156" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M156" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17079,7 +17080,7 @@
       </c>
       <c r="H157" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I157" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H157,H157)&gt;1,TRUE,FALSE)</f>
@@ -17095,7 +17096,7 @@
       </c>
       <c r="L157" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M157" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17140,7 +17141,7 @@
       </c>
       <c r="H158" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I158" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H158,H158)&gt;1,TRUE,FALSE)</f>
@@ -17156,7 +17157,7 @@
       </c>
       <c r="L158" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M158" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17201,11 +17202,11 @@
       </c>
       <c r="H159" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I159" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H159,H159)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -17213,11 +17214,11 @@
       </c>
       <c r="K159" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M159" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17262,11 +17263,11 @@
       </c>
       <c r="H160" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I160" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H160,H160)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -17274,11 +17275,11 @@
       </c>
       <c r="K160" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M160" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17323,11 +17324,11 @@
       </c>
       <c r="H161" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I161" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H161,H161)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -17335,11 +17336,11 @@
       </c>
       <c r="K161" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M161" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17384,11 +17385,11 @@
       </c>
       <c r="H162" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I162" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H162,H162)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -17396,11 +17397,11 @@
       </c>
       <c r="K162" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M162" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17445,7 +17446,7 @@
       </c>
       <c r="H163" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I163" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H163,H163)&gt;1,TRUE,FALSE)</f>
@@ -17461,7 +17462,7 @@
       </c>
       <c r="L163" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M163" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17506,7 +17507,7 @@
       </c>
       <c r="H164" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I164" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H164,H164)&gt;1,TRUE,FALSE)</f>
@@ -17522,7 +17523,7 @@
       </c>
       <c r="L164" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M164" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17567,7 +17568,7 @@
       </c>
       <c r="H165" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I165" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H165,H165)&gt;1,TRUE,FALSE)</f>
@@ -17583,7 +17584,7 @@
       </c>
       <c r="L165" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M165" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17628,7 +17629,7 @@
       </c>
       <c r="H166" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I166" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H166,H166)&gt;1,TRUE,FALSE)</f>
@@ -17644,7 +17645,7 @@
       </c>
       <c r="L166" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M166" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17689,7 +17690,7 @@
       </c>
       <c r="H167" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I167" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H167,H167)&gt;1,TRUE,FALSE)</f>
@@ -17705,7 +17706,7 @@
       </c>
       <c r="L167" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M167" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17750,7 +17751,7 @@
       </c>
       <c r="H168" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I168" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H168,H168)&gt;1,TRUE,FALSE)</f>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="L168" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M168" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17811,7 +17812,7 @@
       </c>
       <c r="H169" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I169" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H169,H169)&gt;1,TRUE,FALSE)</f>
@@ -17827,7 +17828,7 @@
       </c>
       <c r="L169" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M169" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17872,7 +17873,7 @@
       </c>
       <c r="H170" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I170" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H170,H170)&gt;1,TRUE,FALSE)</f>
@@ -17888,7 +17889,7 @@
       </c>
       <c r="L170" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M170" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17933,7 +17934,7 @@
       </c>
       <c r="H171" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I171" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H171,H171)&gt;1,TRUE,FALSE)</f>
@@ -17949,7 +17950,7 @@
       </c>
       <c r="L171" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M171" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -17994,7 +17995,7 @@
       </c>
       <c r="H172" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I172" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H172,H172)&gt;1,TRUE,FALSE)</f>
@@ -18010,7 +18011,7 @@
       </c>
       <c r="L172" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M172" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18055,7 +18056,7 @@
       </c>
       <c r="H173" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I173" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H173,H173)&gt;1,TRUE,FALSE)</f>
@@ -18071,7 +18072,7 @@
       </c>
       <c r="L173" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M173" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18116,7 +18117,7 @@
       </c>
       <c r="H174" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I174" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H174,H174)&gt;1,TRUE,FALSE)</f>
@@ -18132,7 +18133,7 @@
       </c>
       <c r="L174" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M174" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18177,7 +18178,7 @@
       </c>
       <c r="H175" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I175" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H175,H175)&gt;1,TRUE,FALSE)</f>
@@ -18193,7 +18194,7 @@
       </c>
       <c r="L175" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M175" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18238,7 +18239,7 @@
       </c>
       <c r="H176" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I176" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H176,H176)&gt;1,TRUE,FALSE)</f>
@@ -18254,7 +18255,7 @@
       </c>
       <c r="L176" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M176" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18299,7 +18300,7 @@
       </c>
       <c r="H177" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I177" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H177,H177)&gt;1,TRUE,FALSE)</f>
@@ -18315,7 +18316,7 @@
       </c>
       <c r="L177" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M177" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18360,11 +18361,11 @@
       </c>
       <c r="H178" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I178" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H178,H178)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -18372,11 +18373,11 @@
       </c>
       <c r="K178" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M178" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18421,7 +18422,7 @@
       </c>
       <c r="H179" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I179" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H179,H179)&gt;1,TRUE,FALSE)</f>
@@ -18437,7 +18438,7 @@
       </c>
       <c r="L179" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M179" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18482,7 +18483,7 @@
       </c>
       <c r="H180" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I180" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H180,H180)&gt;1,TRUE,FALSE)</f>
@@ -18498,7 +18499,7 @@
       </c>
       <c r="L180" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M180" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18543,7 +18544,7 @@
       </c>
       <c r="H181" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I181" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H181,H181)&gt;1,TRUE,FALSE)</f>
@@ -18559,7 +18560,7 @@
       </c>
       <c r="L181" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M181" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18604,7 +18605,7 @@
       </c>
       <c r="H182" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I182" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H182,H182)&gt;1,TRUE,FALSE)</f>
@@ -18620,7 +18621,7 @@
       </c>
       <c r="L182" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M182" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18665,7 +18666,7 @@
       </c>
       <c r="H183" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I183" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H183,H183)&gt;1,TRUE,FALSE)</f>
@@ -18681,7 +18682,7 @@
       </c>
       <c r="L183" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M183" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="H184" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I184" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H184,H184)&gt;1,TRUE,FALSE)</f>
@@ -18742,7 +18743,7 @@
       </c>
       <c r="L184" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M184" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18787,7 +18788,7 @@
       </c>
       <c r="H185" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I185" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H185,H185)&gt;1,TRUE,FALSE)</f>
@@ -18803,7 +18804,7 @@
       </c>
       <c r="L185" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M185" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18848,7 +18849,7 @@
       </c>
       <c r="H186" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I186" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H186,H186)&gt;1,TRUE,FALSE)</f>
@@ -18864,7 +18865,7 @@
       </c>
       <c r="L186" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M186" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18909,7 +18910,7 @@
       </c>
       <c r="H187" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I187" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H187,H187)&gt;1,TRUE,FALSE)</f>
@@ -18925,7 +18926,7 @@
       </c>
       <c r="L187" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M187" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -18970,7 +18971,7 @@
       </c>
       <c r="H188" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="I188" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H188,H188)&gt;1,TRUE,FALSE)</f>
@@ -18986,7 +18987,7 @@
       </c>
       <c r="L188" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M188" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19031,7 +19032,7 @@
       </c>
       <c r="H189" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I189" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H189,H189)&gt;1,TRUE,FALSE)</f>
@@ -19047,7 +19048,7 @@
       </c>
       <c r="L189" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M189" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19092,7 +19093,7 @@
       </c>
       <c r="H190" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="I190" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H190,H190)&gt;1,TRUE,FALSE)</f>
@@ -19108,7 +19109,7 @@
       </c>
       <c r="L190" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M190" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19153,7 +19154,7 @@
       </c>
       <c r="H191" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I191" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H191,H191)&gt;1,TRUE,FALSE)</f>
@@ -19169,7 +19170,7 @@
       </c>
       <c r="L191" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M191" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19214,7 +19215,7 @@
       </c>
       <c r="H192" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I192" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H192,H192)&gt;1,TRUE,FALSE)</f>
@@ -19230,7 +19231,7 @@
       </c>
       <c r="L192" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M192" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19275,7 +19276,7 @@
       </c>
       <c r="H193" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I193" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H193,H193)&gt;1,TRUE,FALSE)</f>
@@ -19291,7 +19292,7 @@
       </c>
       <c r="L193" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M193" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19336,7 +19337,7 @@
       </c>
       <c r="H194" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I194" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H194,H194)&gt;1,TRUE,FALSE)</f>
@@ -19352,7 +19353,7 @@
       </c>
       <c r="L194" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M194" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19397,11 +19398,11 @@
       </c>
       <c r="H195" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I195" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H195,H195)&gt;1,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" s="4" t="b">
         <f t="shared" ca="1" si="31"/>
@@ -19409,11 +19410,11 @@
       </c>
       <c r="K195" s="4" t="b">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M195" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19458,7 +19459,7 @@
       </c>
       <c r="H196" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I196" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H196,H196)&gt;1,TRUE,FALSE)</f>
@@ -19474,7 +19475,7 @@
       </c>
       <c r="L196" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M196" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19535,7 +19536,7 @@
       </c>
       <c r="L197" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M197" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19580,7 +19581,7 @@
       </c>
       <c r="H198" s="4">
         <f t="shared" ca="1" si="30"/>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I198" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H198,H198)&gt;1,TRUE,FALSE)</f>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="L198" s="4">
         <f t="shared" ca="1" si="33"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M198" s="4" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -19641,7 +19642,7 @@
       </c>
       <c r="H199" s="4">
         <f t="shared" ref="H199:H262" ca="1" si="43">RANDBETWEEN(1,$A$2)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I199" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H199,H199)&gt;1,TRUE,FALSE)</f>
@@ -19657,7 +19658,7 @@
       </c>
       <c r="L199" s="4">
         <f t="shared" ref="L199:L262" ca="1" si="46">IF(K199,L198+1,L198)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M199" s="4" t="str">
         <f t="shared" ref="M199:M262" ca="1" si="47">IF(AND(K199,L199&lt;=$B$2),H199,"")</f>
@@ -19702,7 +19703,7 @@
       </c>
       <c r="H200" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I200" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H200,H200)&gt;1,TRUE,FALSE)</f>
@@ -19718,7 +19719,7 @@
       </c>
       <c r="L200" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M200" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -19763,7 +19764,7 @@
       </c>
       <c r="H201" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I201" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H201,H201)&gt;1,TRUE,FALSE)</f>
@@ -19779,7 +19780,7 @@
       </c>
       <c r="L201" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M201" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -19824,7 +19825,7 @@
       </c>
       <c r="H202" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I202" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H202,H202)&gt;1,TRUE,FALSE)</f>
@@ -19840,7 +19841,7 @@
       </c>
       <c r="L202" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M202" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -19885,7 +19886,7 @@
       </c>
       <c r="H203" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I203" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H203,H203)&gt;1,TRUE,FALSE)</f>
@@ -19901,7 +19902,7 @@
       </c>
       <c r="L203" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M203" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -19946,7 +19947,7 @@
       </c>
       <c r="H204" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I204" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H204,H204)&gt;1,TRUE,FALSE)</f>
@@ -19962,7 +19963,7 @@
       </c>
       <c r="L204" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M204" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20007,7 +20008,7 @@
       </c>
       <c r="H205" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I205" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H205,H205)&gt;1,TRUE,FALSE)</f>
@@ -20023,7 +20024,7 @@
       </c>
       <c r="L205" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M205" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20068,7 +20069,7 @@
       </c>
       <c r="H206" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I206" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H206,H206)&gt;1,TRUE,FALSE)</f>
@@ -20084,7 +20085,7 @@
       </c>
       <c r="L206" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M206" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20129,7 +20130,7 @@
       </c>
       <c r="H207" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I207" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H207,H207)&gt;1,TRUE,FALSE)</f>
@@ -20145,7 +20146,7 @@
       </c>
       <c r="L207" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M207" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20190,7 +20191,7 @@
       </c>
       <c r="H208" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I208" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H208,H208)&gt;1,TRUE,FALSE)</f>
@@ -20206,7 +20207,7 @@
       </c>
       <c r="L208" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M208" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20251,7 +20252,7 @@
       </c>
       <c r="H209" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I209" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H209,H209)&gt;1,TRUE,FALSE)</f>
@@ -20267,7 +20268,7 @@
       </c>
       <c r="L209" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M209" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20312,7 +20313,7 @@
       </c>
       <c r="H210" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I210" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H210,H210)&gt;1,TRUE,FALSE)</f>
@@ -20328,7 +20329,7 @@
       </c>
       <c r="L210" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M210" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20373,7 +20374,7 @@
       </c>
       <c r="H211" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I211" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H211,H211)&gt;1,TRUE,FALSE)</f>
@@ -20389,7 +20390,7 @@
       </c>
       <c r="L211" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M211" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20434,7 +20435,7 @@
       </c>
       <c r="H212" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I212" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H212,H212)&gt;1,TRUE,FALSE)</f>
@@ -20450,7 +20451,7 @@
       </c>
       <c r="L212" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M212" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20495,7 +20496,7 @@
       </c>
       <c r="H213" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I213" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H213,H213)&gt;1,TRUE,FALSE)</f>
@@ -20511,7 +20512,7 @@
       </c>
       <c r="L213" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M213" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="H214" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I214" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H214,H214)&gt;1,TRUE,FALSE)</f>
@@ -20572,7 +20573,7 @@
       </c>
       <c r="L214" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M214" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20617,7 +20618,7 @@
       </c>
       <c r="H215" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I215" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H215,H215)&gt;1,TRUE,FALSE)</f>
@@ -20633,7 +20634,7 @@
       </c>
       <c r="L215" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M215" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20694,7 +20695,7 @@
       </c>
       <c r="L216" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M216" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20739,7 +20740,7 @@
       </c>
       <c r="H217" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I217" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H217,H217)&gt;1,TRUE,FALSE)</f>
@@ -20755,7 +20756,7 @@
       </c>
       <c r="L217" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M217" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20800,7 +20801,7 @@
       </c>
       <c r="H218" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I218" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H218,H218)&gt;1,TRUE,FALSE)</f>
@@ -20816,7 +20817,7 @@
       </c>
       <c r="L218" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M218" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20861,7 +20862,7 @@
       </c>
       <c r="H219" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I219" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H219,H219)&gt;1,TRUE,FALSE)</f>
@@ -20877,7 +20878,7 @@
       </c>
       <c r="L219" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M219" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20922,7 +20923,7 @@
       </c>
       <c r="H220" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I220" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H220,H220)&gt;1,TRUE,FALSE)</f>
@@ -20938,7 +20939,7 @@
       </c>
       <c r="L220" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M220" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -20983,7 +20984,7 @@
       </c>
       <c r="H221" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I221" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H221,H221)&gt;1,TRUE,FALSE)</f>
@@ -20999,7 +21000,7 @@
       </c>
       <c r="L221" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M221" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21044,7 +21045,7 @@
       </c>
       <c r="H222" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I222" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H222,H222)&gt;1,TRUE,FALSE)</f>
@@ -21060,7 +21061,7 @@
       </c>
       <c r="L222" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M222" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21105,7 +21106,7 @@
       </c>
       <c r="H223" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I223" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H223,H223)&gt;1,TRUE,FALSE)</f>
@@ -21121,7 +21122,7 @@
       </c>
       <c r="L223" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M223" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21166,7 +21167,7 @@
       </c>
       <c r="H224" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I224" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H224,H224)&gt;1,TRUE,FALSE)</f>
@@ -21182,7 +21183,7 @@
       </c>
       <c r="L224" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M224" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21227,7 +21228,7 @@
       </c>
       <c r="H225" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I225" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H225,H225)&gt;1,TRUE,FALSE)</f>
@@ -21243,7 +21244,7 @@
       </c>
       <c r="L225" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M225" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21288,7 +21289,7 @@
       </c>
       <c r="H226" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I226" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H226,H226)&gt;1,TRUE,FALSE)</f>
@@ -21304,7 +21305,7 @@
       </c>
       <c r="L226" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M226" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21349,7 +21350,7 @@
       </c>
       <c r="H227" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I227" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H227,H227)&gt;1,TRUE,FALSE)</f>
@@ -21365,7 +21366,7 @@
       </c>
       <c r="L227" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M227" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21410,7 +21411,7 @@
       </c>
       <c r="H228" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I228" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H228,H228)&gt;1,TRUE,FALSE)</f>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="L228" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M228" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21471,7 +21472,7 @@
       </c>
       <c r="H229" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I229" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H229,H229)&gt;1,TRUE,FALSE)</f>
@@ -21487,7 +21488,7 @@
       </c>
       <c r="L229" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M229" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21532,7 +21533,7 @@
       </c>
       <c r="H230" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I230" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H230,H230)&gt;1,TRUE,FALSE)</f>
@@ -21548,7 +21549,7 @@
       </c>
       <c r="L230" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M230" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21593,7 +21594,7 @@
       </c>
       <c r="H231" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I231" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H231,H231)&gt;1,TRUE,FALSE)</f>
@@ -21609,7 +21610,7 @@
       </c>
       <c r="L231" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M231" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21654,7 +21655,7 @@
       </c>
       <c r="H232" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I232" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H232,H232)&gt;1,TRUE,FALSE)</f>
@@ -21670,7 +21671,7 @@
       </c>
       <c r="L232" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M232" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21715,7 +21716,7 @@
       </c>
       <c r="H233" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I233" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H233,H233)&gt;1,TRUE,FALSE)</f>
@@ -21731,7 +21732,7 @@
       </c>
       <c r="L233" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M233" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21776,7 +21777,7 @@
       </c>
       <c r="H234" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I234" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H234,H234)&gt;1,TRUE,FALSE)</f>
@@ -21792,7 +21793,7 @@
       </c>
       <c r="L234" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M234" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21837,7 +21838,7 @@
       </c>
       <c r="H235" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I235" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H235,H235)&gt;1,TRUE,FALSE)</f>
@@ -21853,7 +21854,7 @@
       </c>
       <c r="L235" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M235" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21898,7 +21899,7 @@
       </c>
       <c r="H236" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I236" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H236,H236)&gt;1,TRUE,FALSE)</f>
@@ -21914,7 +21915,7 @@
       </c>
       <c r="L236" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M236" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -21959,7 +21960,7 @@
       </c>
       <c r="H237" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I237" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H237,H237)&gt;1,TRUE,FALSE)</f>
@@ -21975,7 +21976,7 @@
       </c>
       <c r="L237" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M237" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22020,7 +22021,7 @@
       </c>
       <c r="H238" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I238" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H238,H238)&gt;1,TRUE,FALSE)</f>
@@ -22036,7 +22037,7 @@
       </c>
       <c r="L238" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M238" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22081,7 +22082,7 @@
       </c>
       <c r="H239" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I239" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H239,H239)&gt;1,TRUE,FALSE)</f>
@@ -22097,7 +22098,7 @@
       </c>
       <c r="L239" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M239" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22142,7 +22143,7 @@
       </c>
       <c r="H240" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I240" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H240,H240)&gt;1,TRUE,FALSE)</f>
@@ -22158,7 +22159,7 @@
       </c>
       <c r="L240" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M240" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22203,7 +22204,7 @@
       </c>
       <c r="H241" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I241" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H241,H241)&gt;1,TRUE,FALSE)</f>
@@ -22219,7 +22220,7 @@
       </c>
       <c r="L241" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M241" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22264,7 +22265,7 @@
       </c>
       <c r="H242" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I242" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H242,H242)&gt;1,TRUE,FALSE)</f>
@@ -22280,7 +22281,7 @@
       </c>
       <c r="L242" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M242" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22325,7 +22326,7 @@
       </c>
       <c r="H243" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I243" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H243,H243)&gt;1,TRUE,FALSE)</f>
@@ -22341,7 +22342,7 @@
       </c>
       <c r="L243" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M243" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22386,7 +22387,7 @@
       </c>
       <c r="H244" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I244" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H244,H244)&gt;1,TRUE,FALSE)</f>
@@ -22402,7 +22403,7 @@
       </c>
       <c r="L244" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M244" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22447,7 +22448,7 @@
       </c>
       <c r="H245" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I245" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H245,H245)&gt;1,TRUE,FALSE)</f>
@@ -22463,7 +22464,7 @@
       </c>
       <c r="L245" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M245" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22524,7 +22525,7 @@
       </c>
       <c r="L246" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M246" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22569,7 +22570,7 @@
       </c>
       <c r="H247" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I247" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H247,H247)&gt;1,TRUE,FALSE)</f>
@@ -22585,7 +22586,7 @@
       </c>
       <c r="L247" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M247" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22630,7 +22631,7 @@
       </c>
       <c r="H248" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I248" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H248,H248)&gt;1,TRUE,FALSE)</f>
@@ -22646,7 +22647,7 @@
       </c>
       <c r="L248" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M248" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22691,7 +22692,7 @@
       </c>
       <c r="H249" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I249" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H249,H249)&gt;1,TRUE,FALSE)</f>
@@ -22707,7 +22708,7 @@
       </c>
       <c r="L249" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M249" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22752,7 +22753,7 @@
       </c>
       <c r="H250" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I250" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H250,H250)&gt;1,TRUE,FALSE)</f>
@@ -22768,7 +22769,7 @@
       </c>
       <c r="L250" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M250" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22813,7 +22814,7 @@
       </c>
       <c r="H251" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I251" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H251,H251)&gt;1,TRUE,FALSE)</f>
@@ -22829,7 +22830,7 @@
       </c>
       <c r="L251" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M251" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22874,7 +22875,7 @@
       </c>
       <c r="H252" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I252" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H252,H252)&gt;1,TRUE,FALSE)</f>
@@ -22890,7 +22891,7 @@
       </c>
       <c r="L252" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M252" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22935,7 +22936,7 @@
       </c>
       <c r="H253" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I253" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H253,H253)&gt;1,TRUE,FALSE)</f>
@@ -22951,7 +22952,7 @@
       </c>
       <c r="L253" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M253" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -22996,11 +22997,11 @@
       </c>
       <c r="H254" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I254" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H254,H254)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="4" t="b">
         <f t="shared" ca="1" si="44"/>
@@ -23008,11 +23009,11 @@
       </c>
       <c r="K254" s="4" t="b">
         <f t="shared" ca="1" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L254" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M254" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23057,7 +23058,7 @@
       </c>
       <c r="H255" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I255" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H255,H255)&gt;1,TRUE,FALSE)</f>
@@ -23073,7 +23074,7 @@
       </c>
       <c r="L255" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M255" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23118,7 +23119,7 @@
       </c>
       <c r="H256" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I256" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H256,H256)&gt;1,TRUE,FALSE)</f>
@@ -23134,7 +23135,7 @@
       </c>
       <c r="L256" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M256" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23179,7 +23180,7 @@
       </c>
       <c r="H257" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I257" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H257,H257)&gt;1,TRUE,FALSE)</f>
@@ -23195,7 +23196,7 @@
       </c>
       <c r="L257" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M257" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23240,7 +23241,7 @@
       </c>
       <c r="H258" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I258" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H258,H258)&gt;1,TRUE,FALSE)</f>
@@ -23256,7 +23257,7 @@
       </c>
       <c r="L258" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M258" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23301,7 +23302,7 @@
       </c>
       <c r="H259" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I259" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H259,H259)&gt;1,TRUE,FALSE)</f>
@@ -23317,7 +23318,7 @@
       </c>
       <c r="L259" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M259" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23362,7 +23363,7 @@
       </c>
       <c r="H260" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I260" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H260,H260)&gt;1,TRUE,FALSE)</f>
@@ -23378,7 +23379,7 @@
       </c>
       <c r="L260" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M260" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23423,7 +23424,7 @@
       </c>
       <c r="H261" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I261" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H261,H261)&gt;1,TRUE,FALSE)</f>
@@ -23439,7 +23440,7 @@
       </c>
       <c r="L261" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M261" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23484,7 +23485,7 @@
       </c>
       <c r="H262" s="4">
         <f t="shared" ca="1" si="43"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I262" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H262,H262)&gt;1,TRUE,FALSE)</f>
@@ -23500,7 +23501,7 @@
       </c>
       <c r="L262" s="4">
         <f t="shared" ca="1" si="46"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M262" s="4" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -23545,7 +23546,7 @@
       </c>
       <c r="H263" s="4">
         <f t="shared" ref="H263:H326" ca="1" si="56">RANDBETWEEN(1,$A$2)</f>
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I263" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H263,H263)&gt;1,TRUE,FALSE)</f>
@@ -23561,7 +23562,7 @@
       </c>
       <c r="L263" s="4">
         <f t="shared" ref="L263:L326" ca="1" si="59">IF(K263,L262+1,L262)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M263" s="4" t="str">
         <f t="shared" ref="M263:M326" ca="1" si="60">IF(AND(K263,L263&lt;=$B$2),H263,"")</f>
@@ -23606,7 +23607,7 @@
       </c>
       <c r="H264" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I264" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H264,H264)&gt;1,TRUE,FALSE)</f>
@@ -23622,7 +23623,7 @@
       </c>
       <c r="L264" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M264" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -23667,7 +23668,7 @@
       </c>
       <c r="H265" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I265" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H265,H265)&gt;1,TRUE,FALSE)</f>
@@ -23683,7 +23684,7 @@
       </c>
       <c r="L265" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M265" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -23744,7 +23745,7 @@
       </c>
       <c r="L266" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M266" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -23789,7 +23790,7 @@
       </c>
       <c r="H267" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I267" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H267,H267)&gt;1,TRUE,FALSE)</f>
@@ -23805,7 +23806,7 @@
       </c>
       <c r="L267" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M267" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -23850,7 +23851,7 @@
       </c>
       <c r="H268" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I268" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H268,H268)&gt;1,TRUE,FALSE)</f>
@@ -23866,7 +23867,7 @@
       </c>
       <c r="L268" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M268" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -23927,7 +23928,7 @@
       </c>
       <c r="L269" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M269" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -23972,7 +23973,7 @@
       </c>
       <c r="H270" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I270" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H270,H270)&gt;1,TRUE,FALSE)</f>
@@ -23988,7 +23989,7 @@
       </c>
       <c r="L270" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M270" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24033,7 +24034,7 @@
       </c>
       <c r="H271" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I271" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H271,H271)&gt;1,TRUE,FALSE)</f>
@@ -24049,7 +24050,7 @@
       </c>
       <c r="L271" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M271" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24094,7 +24095,7 @@
       </c>
       <c r="H272" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I272" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H272,H272)&gt;1,TRUE,FALSE)</f>
@@ -24110,7 +24111,7 @@
       </c>
       <c r="L272" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M272" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24155,7 +24156,7 @@
       </c>
       <c r="H273" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I273" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H273,H273)&gt;1,TRUE,FALSE)</f>
@@ -24171,7 +24172,7 @@
       </c>
       <c r="L273" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M273" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24216,7 +24217,7 @@
       </c>
       <c r="H274" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I274" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H274,H274)&gt;1,TRUE,FALSE)</f>
@@ -24232,7 +24233,7 @@
       </c>
       <c r="L274" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M274" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24277,7 +24278,7 @@
       </c>
       <c r="H275" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I275" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H275,H275)&gt;1,TRUE,FALSE)</f>
@@ -24293,7 +24294,7 @@
       </c>
       <c r="L275" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M275" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24338,7 +24339,7 @@
       </c>
       <c r="H276" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I276" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H276,H276)&gt;1,TRUE,FALSE)</f>
@@ -24354,7 +24355,7 @@
       </c>
       <c r="L276" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M276" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24399,7 +24400,7 @@
       </c>
       <c r="H277" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I277" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H277,H277)&gt;1,TRUE,FALSE)</f>
@@ -24415,7 +24416,7 @@
       </c>
       <c r="L277" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M277" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24460,7 +24461,7 @@
       </c>
       <c r="H278" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I278" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H278,H278)&gt;1,TRUE,FALSE)</f>
@@ -24476,7 +24477,7 @@
       </c>
       <c r="L278" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M278" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24521,7 +24522,7 @@
       </c>
       <c r="H279" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I279" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H279,H279)&gt;1,TRUE,FALSE)</f>
@@ -24537,7 +24538,7 @@
       </c>
       <c r="L279" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M279" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24582,7 +24583,7 @@
       </c>
       <c r="H280" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I280" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H280,H280)&gt;1,TRUE,FALSE)</f>
@@ -24598,7 +24599,7 @@
       </c>
       <c r="L280" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M280" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24643,7 +24644,7 @@
       </c>
       <c r="H281" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I281" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H281,H281)&gt;1,TRUE,FALSE)</f>
@@ -24659,7 +24660,7 @@
       </c>
       <c r="L281" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M281" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24704,7 +24705,7 @@
       </c>
       <c r="H282" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I282" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H282,H282)&gt;1,TRUE,FALSE)</f>
@@ -24720,7 +24721,7 @@
       </c>
       <c r="L282" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M282" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24765,7 +24766,7 @@
       </c>
       <c r="H283" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I283" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H283,H283)&gt;1,TRUE,FALSE)</f>
@@ -24781,7 +24782,7 @@
       </c>
       <c r="L283" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M283" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24826,7 +24827,7 @@
       </c>
       <c r="H284" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I284" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H284,H284)&gt;1,TRUE,FALSE)</f>
@@ -24842,7 +24843,7 @@
       </c>
       <c r="L284" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M284" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24887,7 +24888,7 @@
       </c>
       <c r="H285" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I285" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H285,H285)&gt;1,TRUE,FALSE)</f>
@@ -24903,7 +24904,7 @@
       </c>
       <c r="L285" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M285" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -24948,7 +24949,7 @@
       </c>
       <c r="H286" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I286" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H286,H286)&gt;1,TRUE,FALSE)</f>
@@ -24964,7 +24965,7 @@
       </c>
       <c r="L286" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M286" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25009,7 +25010,7 @@
       </c>
       <c r="H287" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I287" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H287,H287)&gt;1,TRUE,FALSE)</f>
@@ -25025,7 +25026,7 @@
       </c>
       <c r="L287" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M287" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25070,7 +25071,7 @@
       </c>
       <c r="H288" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I288" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H288,H288)&gt;1,TRUE,FALSE)</f>
@@ -25086,7 +25087,7 @@
       </c>
       <c r="L288" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M288" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25131,7 +25132,7 @@
       </c>
       <c r="H289" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I289" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H289,H289)&gt;1,TRUE,FALSE)</f>
@@ -25147,7 +25148,7 @@
       </c>
       <c r="L289" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M289" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25192,7 +25193,7 @@
       </c>
       <c r="H290" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I290" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H290,H290)&gt;1,TRUE,FALSE)</f>
@@ -25208,7 +25209,7 @@
       </c>
       <c r="L290" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M290" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25253,7 +25254,7 @@
       </c>
       <c r="H291" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I291" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H291,H291)&gt;1,TRUE,FALSE)</f>
@@ -25269,7 +25270,7 @@
       </c>
       <c r="L291" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M291" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25314,7 +25315,7 @@
       </c>
       <c r="H292" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I292" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H292,H292)&gt;1,TRUE,FALSE)</f>
@@ -25330,7 +25331,7 @@
       </c>
       <c r="L292" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M292" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25375,7 +25376,7 @@
       </c>
       <c r="H293" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I293" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H293,H293)&gt;1,TRUE,FALSE)</f>
@@ -25391,7 +25392,7 @@
       </c>
       <c r="L293" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M293" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25436,7 +25437,7 @@
       </c>
       <c r="H294" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I294" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H294,H294)&gt;1,TRUE,FALSE)</f>
@@ -25452,7 +25453,7 @@
       </c>
       <c r="L294" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M294" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25497,7 +25498,7 @@
       </c>
       <c r="H295" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="I295" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H295,H295)&gt;1,TRUE,FALSE)</f>
@@ -25513,7 +25514,7 @@
       </c>
       <c r="L295" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M295" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25558,7 +25559,7 @@
       </c>
       <c r="H296" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I296" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H296,H296)&gt;1,TRUE,FALSE)</f>
@@ -25574,7 +25575,7 @@
       </c>
       <c r="L296" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M296" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25619,7 +25620,7 @@
       </c>
       <c r="H297" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I297" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H297,H297)&gt;1,TRUE,FALSE)</f>
@@ -25635,7 +25636,7 @@
       </c>
       <c r="L297" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M297" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25680,7 +25681,7 @@
       </c>
       <c r="H298" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I298" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H298,H298)&gt;1,TRUE,FALSE)</f>
@@ -25696,7 +25697,7 @@
       </c>
       <c r="L298" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M298" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25741,7 +25742,7 @@
       </c>
       <c r="H299" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I299" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H299,H299)&gt;1,TRUE,FALSE)</f>
@@ -25757,7 +25758,7 @@
       </c>
       <c r="L299" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M299" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25802,7 +25803,7 @@
       </c>
       <c r="H300" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I300" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H300,H300)&gt;1,TRUE,FALSE)</f>
@@ -25818,7 +25819,7 @@
       </c>
       <c r="L300" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M300" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25863,7 +25864,7 @@
       </c>
       <c r="H301" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I301" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H301,H301)&gt;1,TRUE,FALSE)</f>
@@ -25879,7 +25880,7 @@
       </c>
       <c r="L301" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M301" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25924,7 +25925,7 @@
       </c>
       <c r="H302" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I302" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H302,H302)&gt;1,TRUE,FALSE)</f>
@@ -25940,7 +25941,7 @@
       </c>
       <c r="L302" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M302" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -25985,7 +25986,7 @@
       </c>
       <c r="H303" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I303" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H303,H303)&gt;1,TRUE,FALSE)</f>
@@ -26001,7 +26002,7 @@
       </c>
       <c r="L303" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M303" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -26046,7 +26047,7 @@
       </c>
       <c r="H304" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I304" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H304,H304)&gt;1,TRUE,FALSE)</f>
@@ -26062,7 +26063,7 @@
       </c>
       <c r="L304" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M304" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -26096,7 +26097,7 @@
       </c>
       <c r="H305" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I305" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H305,H305)&gt;1,TRUE,FALSE)</f>
@@ -26112,7 +26113,7 @@
       </c>
       <c r="L305" s="4">
         <f t="shared" ca="1" si="59"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M305" s="4" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -26146,11 +26147,11 @@
       </c>
       <c r="H306" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I306" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H306,H306)&gt;1,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" s="4" t="b">
         <f t="shared" ca="1" si="57"/>
@@ -26158,7 +26159,7 @@
       </c>
       <c r="K306" s="4" t="b">
         <f t="shared" ca="1" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L306" s="4">
         <f t="shared" ca="1" si="59"/>
@@ -26196,7 +26197,7 @@
       </c>
       <c r="H307" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I307" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H307,H307)&gt;1,TRUE,FALSE)</f>
@@ -26246,7 +26247,7 @@
       </c>
       <c r="H308" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I308" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H308,H308)&gt;1,TRUE,FALSE)</f>
@@ -26296,7 +26297,7 @@
       </c>
       <c r="H309" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I309" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H309,H309)&gt;1,TRUE,FALSE)</f>
@@ -26346,7 +26347,7 @@
       </c>
       <c r="H310" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I310" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H310,H310)&gt;1,TRUE,FALSE)</f>
@@ -26396,7 +26397,7 @@
       </c>
       <c r="H311" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I311" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H311,H311)&gt;1,TRUE,FALSE)</f>
@@ -26446,7 +26447,7 @@
       </c>
       <c r="H312" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="I312" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H312,H312)&gt;1,TRUE,FALSE)</f>
@@ -26496,7 +26497,7 @@
       </c>
       <c r="H313" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I313" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H313,H313)&gt;1,TRUE,FALSE)</f>
@@ -26546,7 +26547,7 @@
       </c>
       <c r="H314" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I314" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H314,H314)&gt;1,TRUE,FALSE)</f>
@@ -26596,7 +26597,7 @@
       </c>
       <c r="H315" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I315" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H315,H315)&gt;1,TRUE,FALSE)</f>
@@ -26646,7 +26647,7 @@
       </c>
       <c r="H316" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I316" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H316,H316)&gt;1,TRUE,FALSE)</f>
@@ -26696,7 +26697,7 @@
       </c>
       <c r="H317" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I317" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H317,H317)&gt;1,TRUE,FALSE)</f>
@@ -26746,7 +26747,7 @@
       </c>
       <c r="H318" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I318" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H318,H318)&gt;1,TRUE,FALSE)</f>
@@ -26796,7 +26797,7 @@
       </c>
       <c r="H319" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I319" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H319,H319)&gt;1,TRUE,FALSE)</f>
@@ -26846,7 +26847,7 @@
       </c>
       <c r="H320" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I320" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H320,H320)&gt;1,TRUE,FALSE)</f>
@@ -26896,7 +26897,7 @@
       </c>
       <c r="H321" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I321" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H321,H321)&gt;1,TRUE,FALSE)</f>
@@ -26946,7 +26947,7 @@
       </c>
       <c r="H322" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I322" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H322,H322)&gt;1,TRUE,FALSE)</f>
@@ -26996,7 +26997,7 @@
       </c>
       <c r="H323" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I323" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H323,H323)&gt;1,TRUE,FALSE)</f>
@@ -27046,7 +27047,7 @@
       </c>
       <c r="H324" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I324" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H324,H324)&gt;1,TRUE,FALSE)</f>
@@ -27096,7 +27097,7 @@
       </c>
       <c r="H325" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I325" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H325,H325)&gt;1,TRUE,FALSE)</f>
@@ -27196,7 +27197,7 @@
       </c>
       <c r="H327" s="4">
         <f t="shared" ref="H327:H390" ca="1" si="67">RANDBETWEEN(1,$A$2)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I327" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H327,H327)&gt;1,TRUE,FALSE)</f>
@@ -27246,7 +27247,7 @@
       </c>
       <c r="H328" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I328" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H328,H328)&gt;1,TRUE,FALSE)</f>
@@ -27296,7 +27297,7 @@
       </c>
       <c r="H329" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I329" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H329,H329)&gt;1,TRUE,FALSE)</f>
@@ -27346,7 +27347,7 @@
       </c>
       <c r="H330" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I330" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H330,H330)&gt;1,TRUE,FALSE)</f>
@@ -27396,7 +27397,7 @@
       </c>
       <c r="H331" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I331" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H331,H331)&gt;1,TRUE,FALSE)</f>
@@ -27446,7 +27447,7 @@
       </c>
       <c r="H332" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I332" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H332,H332)&gt;1,TRUE,FALSE)</f>
@@ -27496,7 +27497,7 @@
       </c>
       <c r="H333" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="I333" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H333,H333)&gt;1,TRUE,FALSE)</f>
@@ -27546,7 +27547,7 @@
       </c>
       <c r="H334" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I334" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H334,H334)&gt;1,TRUE,FALSE)</f>
@@ -27596,7 +27597,7 @@
       </c>
       <c r="H335" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I335" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H335,H335)&gt;1,TRUE,FALSE)</f>
@@ -27646,7 +27647,7 @@
       </c>
       <c r="H336" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I336" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H336,H336)&gt;1,TRUE,FALSE)</f>
@@ -27696,7 +27697,7 @@
       </c>
       <c r="H337" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I337" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H337,H337)&gt;1,TRUE,FALSE)</f>
@@ -27746,7 +27747,7 @@
       </c>
       <c r="H338" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I338" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H338,H338)&gt;1,TRUE,FALSE)</f>
@@ -27796,7 +27797,7 @@
       </c>
       <c r="H339" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I339" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H339,H339)&gt;1,TRUE,FALSE)</f>
@@ -27846,7 +27847,7 @@
       </c>
       <c r="H340" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I340" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H340,H340)&gt;1,TRUE,FALSE)</f>
@@ -27896,7 +27897,7 @@
       </c>
       <c r="H341" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I341" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H341,H341)&gt;1,TRUE,FALSE)</f>
@@ -27946,7 +27947,7 @@
       </c>
       <c r="H342" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I342" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H342,H342)&gt;1,TRUE,FALSE)</f>
@@ -27996,7 +27997,7 @@
       </c>
       <c r="H343" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I343" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H343,H343)&gt;1,TRUE,FALSE)</f>
@@ -28046,7 +28047,7 @@
       </c>
       <c r="H344" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I344" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H344,H344)&gt;1,TRUE,FALSE)</f>
@@ -28096,7 +28097,7 @@
       </c>
       <c r="H345" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I345" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H345,H345)&gt;1,TRUE,FALSE)</f>
@@ -28146,7 +28147,7 @@
       </c>
       <c r="H346" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I346" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H346,H346)&gt;1,TRUE,FALSE)</f>
@@ -28196,7 +28197,7 @@
       </c>
       <c r="H347" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I347" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H347,H347)&gt;1,TRUE,FALSE)</f>
@@ -28296,7 +28297,7 @@
       </c>
       <c r="H349" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I349" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H349,H349)&gt;1,TRUE,FALSE)</f>
@@ -28346,7 +28347,7 @@
       </c>
       <c r="H350" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I350" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H350,H350)&gt;1,TRUE,FALSE)</f>
@@ -28396,7 +28397,7 @@
       </c>
       <c r="H351" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I351" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H351,H351)&gt;1,TRUE,FALSE)</f>
@@ -28446,7 +28447,7 @@
       </c>
       <c r="H352" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I352" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H352,H352)&gt;1,TRUE,FALSE)</f>
@@ -28496,7 +28497,7 @@
       </c>
       <c r="H353" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I353" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H353,H353)&gt;1,TRUE,FALSE)</f>
@@ -28546,7 +28547,7 @@
       </c>
       <c r="H354" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I354" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H354,H354)&gt;1,TRUE,FALSE)</f>
@@ -28596,7 +28597,7 @@
       </c>
       <c r="H355" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I355" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H355,H355)&gt;1,TRUE,FALSE)</f>
@@ -28646,7 +28647,7 @@
       </c>
       <c r="H356" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I356" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H356,H356)&gt;1,TRUE,FALSE)</f>
@@ -28696,7 +28697,7 @@
       </c>
       <c r="H357" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I357" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H357,H357)&gt;1,TRUE,FALSE)</f>
@@ -28746,7 +28747,7 @@
       </c>
       <c r="H358" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I358" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H358,H358)&gt;1,TRUE,FALSE)</f>
@@ -28796,7 +28797,7 @@
       </c>
       <c r="H359" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I359" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H359,H359)&gt;1,TRUE,FALSE)</f>
@@ -28846,7 +28847,7 @@
       </c>
       <c r="H360" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I360" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H360,H360)&gt;1,TRUE,FALSE)</f>
@@ -28896,7 +28897,7 @@
       </c>
       <c r="H361" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I361" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H361,H361)&gt;1,TRUE,FALSE)</f>
@@ -28946,7 +28947,7 @@
       </c>
       <c r="H362" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I362" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H362,H362)&gt;1,TRUE,FALSE)</f>
@@ -28996,7 +28997,7 @@
       </c>
       <c r="H363" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I363" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H363,H363)&gt;1,TRUE,FALSE)</f>
@@ -29046,7 +29047,7 @@
       </c>
       <c r="H364" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I364" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H364,H364)&gt;1,TRUE,FALSE)</f>
@@ -29096,7 +29097,7 @@
       </c>
       <c r="H365" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I365" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H365,H365)&gt;1,TRUE,FALSE)</f>
@@ -29146,7 +29147,7 @@
       </c>
       <c r="H366" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I366" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H366,H366)&gt;1,TRUE,FALSE)</f>
@@ -29196,7 +29197,7 @@
       </c>
       <c r="H367" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I367" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H367,H367)&gt;1,TRUE,FALSE)</f>
@@ -29246,7 +29247,7 @@
       </c>
       <c r="H368" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I368" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H368,H368)&gt;1,TRUE,FALSE)</f>
@@ -29296,7 +29297,7 @@
       </c>
       <c r="H369" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I369" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H369,H369)&gt;1,TRUE,FALSE)</f>
@@ -29346,7 +29347,7 @@
       </c>
       <c r="H370" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I370" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H370,H370)&gt;1,TRUE,FALSE)</f>
@@ -29396,7 +29397,7 @@
       </c>
       <c r="H371" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I371" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H371,H371)&gt;1,TRUE,FALSE)</f>
@@ -29446,7 +29447,7 @@
       </c>
       <c r="H372" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I372" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H372,H372)&gt;1,TRUE,FALSE)</f>
@@ -29496,7 +29497,7 @@
       </c>
       <c r="H373" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I373" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H373,H373)&gt;1,TRUE,FALSE)</f>
@@ -29546,7 +29547,7 @@
       </c>
       <c r="H374" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I374" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H374,H374)&gt;1,TRUE,FALSE)</f>
@@ -29596,7 +29597,7 @@
       </c>
       <c r="H375" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I375" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H375,H375)&gt;1,TRUE,FALSE)</f>
@@ -29646,7 +29647,7 @@
       </c>
       <c r="H376" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I376" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H376,H376)&gt;1,TRUE,FALSE)</f>
@@ -29696,7 +29697,7 @@
       </c>
       <c r="H377" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I377" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H377,H377)&gt;1,TRUE,FALSE)</f>
@@ -29746,7 +29747,7 @@
       </c>
       <c r="H378" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I378" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H378,H378)&gt;1,TRUE,FALSE)</f>
@@ -29796,7 +29797,7 @@
       </c>
       <c r="H379" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I379" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H379,H379)&gt;1,TRUE,FALSE)</f>
@@ -29846,7 +29847,7 @@
       </c>
       <c r="H380" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I380" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H380,H380)&gt;1,TRUE,FALSE)</f>
@@ -29896,7 +29897,7 @@
       </c>
       <c r="H381" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I381" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H381,H381)&gt;1,TRUE,FALSE)</f>
@@ -29946,7 +29947,7 @@
       </c>
       <c r="H382" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I382" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H382,H382)&gt;1,TRUE,FALSE)</f>
@@ -29996,7 +29997,7 @@
       </c>
       <c r="H383" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I383" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H383,H383)&gt;1,TRUE,FALSE)</f>
@@ -30046,7 +30047,7 @@
       </c>
       <c r="H384" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I384" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H384,H384)&gt;1,TRUE,FALSE)</f>
@@ -30096,7 +30097,7 @@
       </c>
       <c r="H385" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I385" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H385,H385)&gt;1,TRUE,FALSE)</f>
@@ -30146,7 +30147,7 @@
       </c>
       <c r="H386" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I386" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H386,H386)&gt;1,TRUE,FALSE)</f>
@@ -30196,7 +30197,7 @@
       </c>
       <c r="H387" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I387" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H387,H387)&gt;1,TRUE,FALSE)</f>
@@ -30246,7 +30247,7 @@
       </c>
       <c r="H388" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="I388" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H388,H388)&gt;1,TRUE,FALSE)</f>
@@ -30296,7 +30297,7 @@
       </c>
       <c r="H389" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I389" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H389,H389)&gt;1,TRUE,FALSE)</f>
@@ -30346,7 +30347,7 @@
       </c>
       <c r="H390" s="4">
         <f t="shared" ca="1" si="67"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I390" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H390,H390)&gt;1,TRUE,FALSE)</f>
@@ -30396,7 +30397,7 @@
       </c>
       <c r="H391" s="4">
         <f t="shared" ref="H391:H454" ca="1" si="78">RANDBETWEEN(1,$A$2)</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I391" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H391,H391)&gt;1,TRUE,FALSE)</f>
@@ -30446,7 +30447,7 @@
       </c>
       <c r="H392" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I392" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H392,H392)&gt;1,TRUE,FALSE)</f>
@@ -30496,7 +30497,7 @@
       </c>
       <c r="H393" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I393" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H393,H393)&gt;1,TRUE,FALSE)</f>
@@ -30546,7 +30547,7 @@
       </c>
       <c r="H394" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I394" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H394,H394)&gt;1,TRUE,FALSE)</f>
@@ -30596,7 +30597,7 @@
       </c>
       <c r="H395" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I395" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H395,H395)&gt;1,TRUE,FALSE)</f>
@@ -30646,7 +30647,7 @@
       </c>
       <c r="H396" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I396" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H396,H396)&gt;1,TRUE,FALSE)</f>
@@ -30696,7 +30697,7 @@
       </c>
       <c r="H397" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I397" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H397,H397)&gt;1,TRUE,FALSE)</f>
@@ -30746,7 +30747,7 @@
       </c>
       <c r="H398" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I398" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H398,H398)&gt;1,TRUE,FALSE)</f>
@@ -30796,7 +30797,7 @@
       </c>
       <c r="H399" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I399" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H399,H399)&gt;1,TRUE,FALSE)</f>
@@ -30846,7 +30847,7 @@
       </c>
       <c r="H400" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I400" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H400,H400)&gt;1,TRUE,FALSE)</f>
@@ -30896,7 +30897,7 @@
       </c>
       <c r="H401" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I401" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H401,H401)&gt;1,TRUE,FALSE)</f>
@@ -30946,7 +30947,7 @@
       </c>
       <c r="H402" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I402" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H402,H402)&gt;1,TRUE,FALSE)</f>
@@ -30996,7 +30997,7 @@
       </c>
       <c r="H403" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I403" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H403,H403)&gt;1,TRUE,FALSE)</f>
@@ -31046,7 +31047,7 @@
       </c>
       <c r="H404" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I404" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H404,H404)&gt;1,TRUE,FALSE)</f>
@@ -31096,7 +31097,7 @@
       </c>
       <c r="H405" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I405" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H405,H405)&gt;1,TRUE,FALSE)</f>
@@ -31146,7 +31147,7 @@
       </c>
       <c r="H406" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I406" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H406,H406)&gt;1,TRUE,FALSE)</f>
@@ -31196,7 +31197,7 @@
       </c>
       <c r="H407" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I407" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H407,H407)&gt;1,TRUE,FALSE)</f>
@@ -31246,7 +31247,7 @@
       </c>
       <c r="H408" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I408" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H408,H408)&gt;1,TRUE,FALSE)</f>
@@ -31296,7 +31297,7 @@
       </c>
       <c r="H409" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I409" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H409,H409)&gt;1,TRUE,FALSE)</f>
@@ -31346,7 +31347,7 @@
       </c>
       <c r="H410" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I410" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H410,H410)&gt;1,TRUE,FALSE)</f>
@@ -31396,7 +31397,7 @@
       </c>
       <c r="H411" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I411" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H411,H411)&gt;1,TRUE,FALSE)</f>
@@ -31446,7 +31447,7 @@
       </c>
       <c r="H412" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I412" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H412,H412)&gt;1,TRUE,FALSE)</f>
@@ -31496,7 +31497,7 @@
       </c>
       <c r="H413" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I413" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H413,H413)&gt;1,TRUE,FALSE)</f>
@@ -31546,7 +31547,7 @@
       </c>
       <c r="H414" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I414" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H414,H414)&gt;1,TRUE,FALSE)</f>
@@ -31596,7 +31597,7 @@
       </c>
       <c r="H415" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I415" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H415,H415)&gt;1,TRUE,FALSE)</f>
@@ -31646,7 +31647,7 @@
       </c>
       <c r="H416" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I416" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H416,H416)&gt;1,TRUE,FALSE)</f>
@@ -31696,7 +31697,7 @@
       </c>
       <c r="H417" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I417" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H417,H417)&gt;1,TRUE,FALSE)</f>
@@ -31746,7 +31747,7 @@
       </c>
       <c r="H418" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I418" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H418,H418)&gt;1,TRUE,FALSE)</f>
@@ -31796,7 +31797,7 @@
       </c>
       <c r="H419" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I419" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H419,H419)&gt;1,TRUE,FALSE)</f>
@@ -31846,7 +31847,7 @@
       </c>
       <c r="H420" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I420" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H420,H420)&gt;1,TRUE,FALSE)</f>
@@ -31896,7 +31897,7 @@
       </c>
       <c r="H421" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I421" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H421,H421)&gt;1,TRUE,FALSE)</f>
@@ -31946,7 +31947,7 @@
       </c>
       <c r="H422" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I422" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H422,H422)&gt;1,TRUE,FALSE)</f>
@@ -31996,7 +31997,7 @@
       </c>
       <c r="H423" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I423" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H423,H423)&gt;1,TRUE,FALSE)</f>
@@ -32046,7 +32047,7 @@
       </c>
       <c r="H424" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I424" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H424,H424)&gt;1,TRUE,FALSE)</f>
@@ -32096,7 +32097,7 @@
       </c>
       <c r="H425" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I425" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H425,H425)&gt;1,TRUE,FALSE)</f>
@@ -32146,7 +32147,7 @@
       </c>
       <c r="H426" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I426" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H426,H426)&gt;1,TRUE,FALSE)</f>
@@ -32196,7 +32197,7 @@
       </c>
       <c r="H427" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I427" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H427,H427)&gt;1,TRUE,FALSE)</f>
@@ -32246,7 +32247,7 @@
       </c>
       <c r="H428" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I428" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H428,H428)&gt;1,TRUE,FALSE)</f>
@@ -32296,7 +32297,7 @@
       </c>
       <c r="H429" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I429" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H429,H429)&gt;1,TRUE,FALSE)</f>
@@ -32346,7 +32347,7 @@
       </c>
       <c r="H430" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I430" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H430,H430)&gt;1,TRUE,FALSE)</f>
@@ -32396,7 +32397,7 @@
       </c>
       <c r="H431" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I431" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H431,H431)&gt;1,TRUE,FALSE)</f>
@@ -32446,7 +32447,7 @@
       </c>
       <c r="H432" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I432" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H432,H432)&gt;1,TRUE,FALSE)</f>
@@ -32496,7 +32497,7 @@
       </c>
       <c r="H433" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I433" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H433,H433)&gt;1,TRUE,FALSE)</f>
@@ -32546,7 +32547,7 @@
       </c>
       <c r="H434" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I434" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H434,H434)&gt;1,TRUE,FALSE)</f>
@@ -32596,7 +32597,7 @@
       </c>
       <c r="H435" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I435" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H435,H435)&gt;1,TRUE,FALSE)</f>
@@ -32646,7 +32647,7 @@
       </c>
       <c r="H436" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I436" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H436,H436)&gt;1,TRUE,FALSE)</f>
@@ -32696,7 +32697,7 @@
       </c>
       <c r="H437" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I437" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H437,H437)&gt;1,TRUE,FALSE)</f>
@@ -32746,7 +32747,7 @@
       </c>
       <c r="H438" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I438" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H438,H438)&gt;1,TRUE,FALSE)</f>
@@ -32796,7 +32797,7 @@
       </c>
       <c r="H439" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I439" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H439,H439)&gt;1,TRUE,FALSE)</f>
@@ -32846,7 +32847,7 @@
       </c>
       <c r="H440" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I440" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H440,H440)&gt;1,TRUE,FALSE)</f>
@@ -32896,7 +32897,7 @@
       </c>
       <c r="H441" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I441" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H441,H441)&gt;1,TRUE,FALSE)</f>
@@ -32946,7 +32947,7 @@
       </c>
       <c r="H442" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I442" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H442,H442)&gt;1,TRUE,FALSE)</f>
@@ -32996,7 +32997,7 @@
       </c>
       <c r="H443" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I443" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H443,H443)&gt;1,TRUE,FALSE)</f>
@@ -33046,7 +33047,7 @@
       </c>
       <c r="H444" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I444" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H444,H444)&gt;1,TRUE,FALSE)</f>
@@ -33096,7 +33097,7 @@
       </c>
       <c r="H445" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I445" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H445,H445)&gt;1,TRUE,FALSE)</f>
@@ -33146,7 +33147,7 @@
       </c>
       <c r="H446" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I446" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H446,H446)&gt;1,TRUE,FALSE)</f>
@@ -33196,7 +33197,7 @@
       </c>
       <c r="H447" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I447" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H447,H447)&gt;1,TRUE,FALSE)</f>
@@ -33246,7 +33247,7 @@
       </c>
       <c r="H448" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I448" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H448,H448)&gt;1,TRUE,FALSE)</f>
@@ -33346,7 +33347,7 @@
       </c>
       <c r="H450" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I450" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H450,H450)&gt;1,TRUE,FALSE)</f>
@@ -33396,7 +33397,7 @@
       </c>
       <c r="H451" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I451" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H451,H451)&gt;1,TRUE,FALSE)</f>
@@ -33446,7 +33447,7 @@
       </c>
       <c r="H452" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I452" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H452,H452)&gt;1,TRUE,FALSE)</f>
@@ -33496,7 +33497,7 @@
       </c>
       <c r="H453" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I453" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H453,H453)&gt;1,TRUE,FALSE)</f>
@@ -33546,7 +33547,7 @@
       </c>
       <c r="H454" s="4">
         <f t="shared" ca="1" si="78"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I454" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H454,H454)&gt;1,TRUE,FALSE)</f>
@@ -33596,7 +33597,7 @@
       </c>
       <c r="H455" s="4">
         <f t="shared" ref="H455:H501" ca="1" si="89">RANDBETWEEN(1,$A$2)</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I455" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H455,H455)&gt;1,TRUE,FALSE)</f>
@@ -33646,7 +33647,7 @@
       </c>
       <c r="H456" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I456" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H456,H456)&gt;1,TRUE,FALSE)</f>
@@ -33696,7 +33697,7 @@
       </c>
       <c r="H457" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I457" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H457,H457)&gt;1,TRUE,FALSE)</f>
@@ -33746,7 +33747,7 @@
       </c>
       <c r="H458" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I458" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H458,H458)&gt;1,TRUE,FALSE)</f>
@@ -33796,7 +33797,7 @@
       </c>
       <c r="H459" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I459" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H459,H459)&gt;1,TRUE,FALSE)</f>
@@ -33846,7 +33847,7 @@
       </c>
       <c r="H460" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I460" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H460,H460)&gt;1,TRUE,FALSE)</f>
@@ -33896,7 +33897,7 @@
       </c>
       <c r="H461" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I461" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H461,H461)&gt;1,TRUE,FALSE)</f>
@@ -33946,7 +33947,7 @@
       </c>
       <c r="H462" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I462" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H462,H462)&gt;1,TRUE,FALSE)</f>
@@ -33996,7 +33997,7 @@
       </c>
       <c r="H463" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I463" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H463,H463)&gt;1,TRUE,FALSE)</f>
@@ -34046,7 +34047,7 @@
       </c>
       <c r="H464" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I464" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H464,H464)&gt;1,TRUE,FALSE)</f>
@@ -34096,7 +34097,7 @@
       </c>
       <c r="H465" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I465" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H465,H465)&gt;1,TRUE,FALSE)</f>
@@ -34146,7 +34147,7 @@
       </c>
       <c r="H466" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I466" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H466,H466)&gt;1,TRUE,FALSE)</f>
@@ -34196,7 +34197,7 @@
       </c>
       <c r="H467" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I467" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H467,H467)&gt;1,TRUE,FALSE)</f>
@@ -34246,7 +34247,7 @@
       </c>
       <c r="H468" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I468" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H468,H468)&gt;1,TRUE,FALSE)</f>
@@ -34296,7 +34297,7 @@
       </c>
       <c r="H469" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I469" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H469,H469)&gt;1,TRUE,FALSE)</f>
@@ -34396,7 +34397,7 @@
       </c>
       <c r="H471" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I471" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H471,H471)&gt;1,TRUE,FALSE)</f>
@@ -34446,7 +34447,7 @@
       </c>
       <c r="H472" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I472" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H472,H472)&gt;1,TRUE,FALSE)</f>
@@ -34496,7 +34497,7 @@
       </c>
       <c r="H473" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I473" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H473,H473)&gt;1,TRUE,FALSE)</f>
@@ -34546,7 +34547,7 @@
       </c>
       <c r="H474" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I474" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H474,H474)&gt;1,TRUE,FALSE)</f>
@@ -34596,7 +34597,7 @@
       </c>
       <c r="H475" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I475" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H475,H475)&gt;1,TRUE,FALSE)</f>
@@ -34646,7 +34647,7 @@
       </c>
       <c r="H476" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I476" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H476,H476)&gt;1,TRUE,FALSE)</f>
@@ -34696,7 +34697,7 @@
       </c>
       <c r="H477" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I477" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H477,H477)&gt;1,TRUE,FALSE)</f>
@@ -34746,7 +34747,7 @@
       </c>
       <c r="H478" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I478" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H478,H478)&gt;1,TRUE,FALSE)</f>
@@ -34796,7 +34797,7 @@
       </c>
       <c r="H479" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I479" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H479,H479)&gt;1,TRUE,FALSE)</f>
@@ -34846,7 +34847,7 @@
       </c>
       <c r="H480" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I480" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H480,H480)&gt;1,TRUE,FALSE)</f>
@@ -34896,7 +34897,7 @@
       </c>
       <c r="H481" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I481" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H481,H481)&gt;1,TRUE,FALSE)</f>
@@ -34946,7 +34947,7 @@
       </c>
       <c r="H482" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I482" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H482,H482)&gt;1,TRUE,FALSE)</f>
@@ -34996,7 +34997,7 @@
       </c>
       <c r="H483" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I483" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H483,H483)&gt;1,TRUE,FALSE)</f>
@@ -35046,7 +35047,7 @@
       </c>
       <c r="H484" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I484" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H484,H484)&gt;1,TRUE,FALSE)</f>
@@ -35096,7 +35097,7 @@
       </c>
       <c r="H485" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I485" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H485,H485)&gt;1,TRUE,FALSE)</f>
@@ -35146,7 +35147,7 @@
       </c>
       <c r="H486" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I486" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H486,H486)&gt;1,TRUE,FALSE)</f>
@@ -35196,7 +35197,7 @@
       </c>
       <c r="H487" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I487" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H487,H487)&gt;1,TRUE,FALSE)</f>
@@ -35296,7 +35297,7 @@
       </c>
       <c r="H489" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I489" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H489,H489)&gt;1,TRUE,FALSE)</f>
@@ -35346,7 +35347,7 @@
       </c>
       <c r="H490" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="I490" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H490,H490)&gt;1,TRUE,FALSE)</f>
@@ -35396,7 +35397,7 @@
       </c>
       <c r="H491" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I491" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H491,H491)&gt;1,TRUE,FALSE)</f>
@@ -35446,7 +35447,7 @@
       </c>
       <c r="H492" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I492" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H492,H492)&gt;1,TRUE,FALSE)</f>
@@ -35496,7 +35497,7 @@
       </c>
       <c r="H493" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I493" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H493,H493)&gt;1,TRUE,FALSE)</f>
@@ -35546,7 +35547,7 @@
       </c>
       <c r="H494" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I494" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H494,H494)&gt;1,TRUE,FALSE)</f>
@@ -35596,7 +35597,7 @@
       </c>
       <c r="H495" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I495" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H495,H495)&gt;1,TRUE,FALSE)</f>
@@ -35646,7 +35647,7 @@
       </c>
       <c r="H496" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I496" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H496,H496)&gt;1,TRUE,FALSE)</f>
@@ -35696,7 +35697,7 @@
       </c>
       <c r="H497" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I497" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H497,H497)&gt;1,TRUE,FALSE)</f>
@@ -35746,7 +35747,7 @@
       </c>
       <c r="H498" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I498" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H498,H498)&gt;1,TRUE,FALSE)</f>
@@ -35796,7 +35797,7 @@
       </c>
       <c r="H499" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I499" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H499,H499)&gt;1,TRUE,FALSE)</f>
@@ -35846,7 +35847,7 @@
       </c>
       <c r="H500" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I500" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H500,H500)&gt;1,TRUE,FALSE)</f>
@@ -35896,7 +35897,7 @@
       </c>
       <c r="H501" s="4">
         <f t="shared" ca="1" si="89"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I501" s="4" t="b">
         <f ca="1">IF(COUNTIF($H$1:H501,H501)&gt;1,TRUE,FALSE)</f>
@@ -36122,11 +36123,11 @@
       </c>
       <c r="C6" s="11">
         <f ca="1">IF(Squasher!T10&lt;&gt;"",Squasher!T10,NA())</f>
-        <v>9.7060966261331316</v>
+        <v>7.0428778393505995</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">IF(Squasher!U10&lt;&gt;"",Squasher!U10,NA())</f>
-        <v>596.51881899999989</v>
+        <v>596.44143599999995</v>
       </c>
       <c r="E6" s="11" t="e">
         <f>IF(Squasher!C10,Squasher!A10,NA())</f>
@@ -36200,11 +36201,11 @@
       </c>
       <c r="C9" s="11">
         <f ca="1">IF(Squasher!T13&lt;&gt;"",Squasher!T13,NA())</f>
-        <v>22.673537475653031</v>
+        <v>15.795539381414653</v>
       </c>
       <c r="D9" s="4">
         <f ca="1">IF(Squasher!U13&lt;&gt;"",Squasher!U13,NA())</f>
-        <v>596.66105399999992</v>
+        <v>596.30319399999996</v>
       </c>
       <c r="E9" s="11" t="e">
         <f>IF(Squasher!C13,Squasher!A13,NA())</f>
@@ -36226,11 +36227,11 @@
       </c>
       <c r="C10" s="11">
         <f ca="1">IF(Squasher!T14&lt;&gt;"",Squasher!T14,NA())</f>
-        <v>29.429046521140197</v>
+        <v>17.694540459232748</v>
       </c>
       <c r="D10" s="4">
         <f ca="1">IF(Squasher!U14&lt;&gt;"",Squasher!U14,NA())</f>
-        <v>596.21382799999992</v>
+        <v>596.29378599999995</v>
       </c>
       <c r="E10" s="11" t="e">
         <f>IF(Squasher!C14,Squasher!A14,NA())</f>
@@ -36252,11 +36253,11 @@
       </c>
       <c r="C11" s="11">
         <f ca="1">IF(Squasher!T15&lt;&gt;"",Squasher!T15,NA())</f>
-        <v>35.171070249955633</v>
+        <v>25.015627813695463</v>
       </c>
       <c r="D11" s="4">
         <f ca="1">IF(Squasher!U15&lt;&gt;"",Squasher!U15,NA())</f>
-        <v>595.06204600000001</v>
+        <v>596.5950489999999</v>
       </c>
       <c r="E11" s="11" t="e">
         <f>IF(Squasher!C15,Squasher!A15,NA())</f>
@@ -36278,11 +36279,11 @@
       </c>
       <c r="C12" s="11">
         <f ca="1">IF(Squasher!T16&lt;&gt;"",Squasher!T16,NA())</f>
-        <v>37.025520412360549</v>
+        <v>29.429046521140197</v>
       </c>
       <c r="D12" s="4">
         <f ca="1">IF(Squasher!U16&lt;&gt;"",Squasher!U16,NA())</f>
-        <v>594.911697</v>
+        <v>596.21382799999992</v>
       </c>
       <c r="E12" s="11" t="e">
         <f>IF(Squasher!C16,Squasher!A16,NA())</f>
@@ -36304,11 +36305,11 @@
       </c>
       <c r="C13" s="11">
         <f ca="1">IF(Squasher!T17&lt;&gt;"",Squasher!T17,NA())</f>
-        <v>44.902765369336663</v>
+        <v>31.422178810405711</v>
       </c>
       <c r="D13" s="4">
         <f ca="1">IF(Squasher!U17&lt;&gt;"",Squasher!U17,NA())</f>
-        <v>594.28614999999991</v>
+        <v>596.00709699999993</v>
       </c>
       <c r="E13" s="11" t="e">
         <f>IF(Squasher!C17,Squasher!A17,NA())</f>
@@ -36330,11 +36331,11 @@
       </c>
       <c r="C14" s="11">
         <f ca="1">IF(Squasher!T18&lt;&gt;"",Squasher!T18,NA())</f>
-        <v>50.117991679524721</v>
+        <v>35.171070249955633</v>
       </c>
       <c r="D14" s="4">
         <f ca="1">IF(Squasher!U18&lt;&gt;"",Squasher!U18,NA())</f>
-        <v>593.97601399999996</v>
+        <v>595.06204600000001</v>
       </c>
       <c r="E14" s="11" t="e">
         <f>IF(Squasher!C18,Squasher!A18,NA())</f>
@@ -36356,11 +36357,11 @@
       </c>
       <c r="C15" s="11">
         <f ca="1">IF(Squasher!T19&lt;&gt;"",Squasher!T19,NA())</f>
-        <v>51.924121820209251</v>
+        <v>40.244824750354198</v>
       </c>
       <c r="D15" s="4">
         <f ca="1">IF(Squasher!U19&lt;&gt;"",Squasher!U19,NA())</f>
-        <v>593.24104199999999</v>
+        <v>594.57256599999994</v>
       </c>
       <c r="E15" s="11" t="e">
         <f>IF(Squasher!C19,Squasher!A19,NA())</f>
@@ -36382,11 +36383,11 @@
       </c>
       <c r="C16" s="11">
         <f ca="1">IF(Squasher!T20&lt;&gt;"",Squasher!T20,NA())</f>
-        <v>53.782058641583461</v>
+        <v>47.98799341988947</v>
       </c>
       <c r="D16" s="4">
         <f ca="1">IF(Squasher!U20&lt;&gt;"",Squasher!U20,NA())</f>
-        <v>592.520759</v>
+        <v>594.25388399999997</v>
       </c>
       <c r="E16" s="11" t="e">
         <f>IF(Squasher!C20,Squasher!A20,NA())</f>
@@ -36408,11 +36409,11 @@
       </c>
       <c r="C17" s="11">
         <f ca="1">IF(Squasher!T21&lt;&gt;"",Squasher!T21,NA())</f>
-        <v>57.514926493651132</v>
+        <v>50.117991679524721</v>
       </c>
       <c r="D17" s="4">
         <f ca="1">IF(Squasher!U21&lt;&gt;"",Squasher!U21,NA())</f>
-        <v>591.29049599999996</v>
+        <v>593.97601399999996</v>
       </c>
       <c r="E17" s="11" t="e">
         <f>IF(Squasher!C21,Squasher!A21,NA())</f>
@@ -36434,11 +36435,11 @@
       </c>
       <c r="C18" s="11">
         <f ca="1">IF(Squasher!T22&lt;&gt;"",Squasher!T22,NA())</f>
-        <v>59.055643659944828</v>
+        <v>51.259454854785211</v>
       </c>
       <c r="D18" s="4">
         <f ca="1">IF(Squasher!U22&lt;&gt;"",Squasher!U22,NA())</f>
-        <v>591.04247999999995</v>
+        <v>593.63709599999993</v>
       </c>
       <c r="E18" s="11" t="e">
         <f>IF(Squasher!C22,Squasher!A22,NA())</f>
@@ -36460,11 +36461,11 @@
       </c>
       <c r="C19" s="11">
         <f ca="1">IF(Squasher!T23&lt;&gt;"",Squasher!T23,NA())</f>
-        <v>61.200961045879303</v>
+        <v>51.924121820209251</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">IF(Squasher!U23&lt;&gt;"",Squasher!U23,NA())</f>
-        <v>591.20973199999992</v>
+        <v>593.24104199999999</v>
       </c>
       <c r="E19" s="11" t="e">
         <f>IF(Squasher!C23,Squasher!A23,NA())</f>
@@ -36486,11 +36487,11 @@
       </c>
       <c r="C20" s="11">
         <f ca="1">IF(Squasher!T24&lt;&gt;"",Squasher!T24,NA())</f>
-        <v>64.40583426003991</v>
+        <v>53.782058641583461</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">IF(Squasher!U24&lt;&gt;"",Squasher!U24,NA())</f>
-        <v>591.08148499999993</v>
+        <v>592.520759</v>
       </c>
       <c r="E20" s="11" t="e">
         <f>IF(Squasher!C24,Squasher!A24,NA())</f>
@@ -36512,11 +36513,11 @@
       </c>
       <c r="C21" s="11">
         <f ca="1">IF(Squasher!T25&lt;&gt;"",Squasher!T25,NA())</f>
-        <v>66.531407082366414</v>
+        <v>56.094335726947179</v>
       </c>
       <c r="D21" s="4">
         <f ca="1">IF(Squasher!U25&lt;&gt;"",Squasher!U25,NA())</f>
-        <v>591.28118799999993</v>
+        <v>591.67169699999999</v>
       </c>
       <c r="E21" s="11" t="e">
         <f>IF(Squasher!C25,Squasher!A25,NA())</f>
@@ -36538,11 +36539,11 @@
       </c>
       <c r="C22" s="11">
         <f ca="1">IF(Squasher!T26&lt;&gt;"",Squasher!T26,NA())</f>
-        <v>68.919076085784525</v>
+        <v>61.200961045879303</v>
       </c>
       <c r="D22" s="4">
         <f ca="1">IF(Squasher!U26&lt;&gt;"",Squasher!U26,NA())</f>
-        <v>591.91285399999992</v>
+        <v>591.20973199999992</v>
       </c>
       <c r="E22" s="11" t="e">
         <f>IF(Squasher!C26,Squasher!A26,NA())</f>
@@ -36564,11 +36565,11 @@
       </c>
       <c r="C23" s="11">
         <f ca="1">IF(Squasher!T27&lt;&gt;"",Squasher!T27,NA())</f>
-        <v>70.119976724951684</v>
+        <v>68.085815748975833</v>
       </c>
       <c r="D23" s="4">
         <f ca="1">IF(Squasher!U27&lt;&gt;"",Squasher!U27,NA())</f>
-        <v>592.43560099999991</v>
+        <v>591.65495799999997</v>
       </c>
       <c r="E23" s="11" t="e">
         <f>IF(Squasher!C27,Squasher!A27,NA())</f>
@@ -36668,11 +36669,11 @@
       </c>
       <c r="C27" s="11">
         <f ca="1">IF(Squasher!T31&lt;&gt;"",Squasher!T31,NA())</f>
-        <v>77.745147133501845</v>
+        <v>75.103268415752353</v>
       </c>
       <c r="D27" s="4">
         <f ca="1">IF(Squasher!U31&lt;&gt;"",Squasher!U31,NA())</f>
-        <v>596.01555499999995</v>
+        <v>594.41669999999999</v>
       </c>
       <c r="E27" s="11" t="e">
         <f>IF(Squasher!C31,Squasher!A31,NA())</f>
@@ -36720,11 +36721,11 @@
       </c>
       <c r="C29" s="11">
         <f ca="1">IF(Squasher!T33&lt;&gt;"",Squasher!T33,NA())</f>
-        <v>82.205157048392735</v>
+        <v>88.101699130889472</v>
       </c>
       <c r="D29" s="4">
         <f ca="1">IF(Squasher!U33&lt;&gt;"",Squasher!U33,NA())</f>
-        <v>596.93220099999996</v>
+        <v>597.285122</v>
       </c>
       <c r="E29" s="11" t="e">
         <f>IF(Squasher!C33,Squasher!A33,NA())</f>
@@ -36746,11 +36747,11 @@
       </c>
       <c r="C30" s="11">
         <f ca="1">IF(Squasher!T34&lt;&gt;"",Squasher!T34,NA())</f>
-        <v>84.784141459288321</v>
+        <v>98.112336891028065</v>
       </c>
       <c r="D30" s="4">
         <f ca="1">IF(Squasher!U34&lt;&gt;"",Squasher!U34,NA())</f>
-        <v>597.1480029999999</v>
+        <v>597.25538599999993</v>
       </c>
       <c r="E30" s="11" t="e">
         <f>IF(Squasher!C34,Squasher!A34,NA())</f>
@@ -36772,11 +36773,11 @@
       </c>
       <c r="C31" s="11">
         <f ca="1">IF(Squasher!T35&lt;&gt;"",Squasher!T35,NA())</f>
-        <v>88.101699130889472</v>
+        <v>102.09750505196772</v>
       </c>
       <c r="D31" s="4">
         <f ca="1">IF(Squasher!U35&lt;&gt;"",Squasher!U35,NA())</f>
-        <v>597.285122</v>
+        <v>597.15063399999997</v>
       </c>
       <c r="E31" s="11" t="e">
         <f>IF(Squasher!C35,Squasher!A35,NA())</f>
@@ -36798,11 +36799,11 @@
       </c>
       <c r="C32" s="11">
         <f ca="1">IF(Squasher!T36&lt;&gt;"",Squasher!T36,NA())</f>
-        <v>94.156505546722912</v>
+        <v>105.81941266323285</v>
       </c>
       <c r="D32" s="4">
         <f ca="1">IF(Squasher!U36&lt;&gt;"",Squasher!U36,NA())</f>
-        <v>597.10817099999997</v>
+        <v>597.05117399999995</v>
       </c>
       <c r="E32" s="11" t="e">
         <f>IF(Squasher!C36,Squasher!A36,NA())</f>
@@ -36824,11 +36825,11 @@
       </c>
       <c r="C33" s="11">
         <f ca="1">IF(Squasher!T37&lt;&gt;"",Squasher!T37,NA())</f>
-        <v>98.112336891028065</v>
+        <v>109.13389189100963</v>
       </c>
       <c r="D33" s="4">
         <f ca="1">IF(Squasher!U37&lt;&gt;"",Squasher!U37,NA())</f>
-        <v>597.25538599999993</v>
+        <v>596.70034799999996</v>
       </c>
       <c r="E33" s="11" t="e">
         <f>IF(Squasher!C37,Squasher!A37,NA())</f>
@@ -36850,11 +36851,11 @@
       </c>
       <c r="C34" s="11">
         <f ca="1">IF(Squasher!T38&lt;&gt;"",Squasher!T38,NA())</f>
-        <v>105.81941266323285</v>
+        <v>112.54096619313809</v>
       </c>
       <c r="D34" s="4">
         <f ca="1">IF(Squasher!U38&lt;&gt;"",Squasher!U38,NA())</f>
-        <v>597.05117399999995</v>
+        <v>596.59321699999998</v>
       </c>
       <c r="E34" s="11" t="e">
         <f>IF(Squasher!C38,Squasher!A38,NA())</f>
